--- a/3rd_Project/Member/Lee/기능,화면,테스트 문서/3th_Project_기능 정의서(이유의) .xlsx
+++ b/3rd_Project/Member/Lee/기능,화면,테스트 문서/3th_Project_기능 정의서(이유의) .xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28245" windowHeight="12315" tabRatio="420" activeTab="1"/>
+    <workbookView windowWidth="28245" windowHeight="12315" tabRatio="420"/>
   </bookViews>
   <sheets>
     <sheet name="기능 정의서-1" sheetId="2" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1026" uniqueCount="470">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1030" uniqueCount="474">
   <si>
     <t>문제 은행 CBT 기능 정의서</t>
   </si>
@@ -214,6 +214,18 @@
   </si>
   <si>
     <t>Book Cart</t>
+  </si>
+  <si>
+    <t>PL</t>
+  </si>
+  <si>
+    <t>Product List</t>
+  </si>
+  <si>
+    <t>TP</t>
+  </si>
+  <si>
+    <t>Total Price</t>
   </si>
   <si>
     <t>BO</t>
@@ -1950,11 +1962,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
-    <numFmt numFmtId="7" formatCode="&quot;$&quot;#,##0.00_);\(&quot;$&quot;#,##0.00\)"/>
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="41" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="&quot;₩&quot;#,##0;\-&quot;₩&quot;#,##0"/>
-    <numFmt numFmtId="177" formatCode="mm\-dd"/>
+    <numFmt numFmtId="176" formatCode="mm\-dd"/>
+    <numFmt numFmtId="7" formatCode="&quot;$&quot;#,##0.00_);\(&quot;$&quot;#,##0.00\)"/>
+    <numFmt numFmtId="177" formatCode="&quot;₩&quot;#,##0;\-&quot;₩&quot;#,##0"/>
   </numFmts>
   <fonts count="26">
     <font>
@@ -2009,40 +2021,15 @@
       <charset val="134"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -2064,6 +2051,14 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -2071,14 +2066,7 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="18"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -2094,6 +2082,29 @@
     <font>
       <u/>
       <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
       <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
@@ -2102,13 +2113,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -2140,6 +2144,14 @@
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -2178,43 +2190,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="5" tint="0.39998"/>
         <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.39998"/>
+        <fgColor theme="5" tint="0.79998"/>
         <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="5"/>
         <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.39998"/>
+        <fgColor theme="4" tint="0.39998"/>
         <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="4"/>
         <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.59999"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="4" tint="0.79998"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
@@ -2232,115 +2268,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor rgb="FF000000"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.39998"/>
-        <bgColor rgb="FF000000"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.79998"/>
-        <bgColor rgb="FF000000"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor rgb="FF000000"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor rgb="FF000000"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.39998"/>
-        <bgColor rgb="FF000000"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor rgb="FF000000"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.59999"/>
-        <bgColor rgb="FF000000"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor rgb="FF000000"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.59999"/>
-        <bgColor rgb="FF000000"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.59999"/>
-        <bgColor rgb="FF000000"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.79998"/>
-        <bgColor rgb="FF000000"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.39998"/>
-        <bgColor rgb="FF000000"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.79998"/>
-        <bgColor rgb="FF000000"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.79998"/>
-        <bgColor rgb="FF000000"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor rgb="FF000000"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
-        <bgColor rgb="FF000000"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.79998"/>
         <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
@@ -2358,7 +2292,85 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.59999"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.39998"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.39998"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.39998"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39998"/>
         <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
@@ -2541,39 +2553,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.39998"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thick">
-        <color rgb="FFACCCEA"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -2585,6 +2564,15 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.39998"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2608,7 +2596,22 @@
       <right/>
       <top/>
       <bottom style="thick">
-        <color theme="4"/>
+        <color rgb="FFACCCEA"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2647,157 +2650,166 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="7" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="20" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="7" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="23" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="17" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="24" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="21" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="20" borderId="23" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="32" borderId="24" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="20" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="32" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="23" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="93">
+  <cellXfs count="95">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3050,6 +3062,12 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3071,7 +3089,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
@@ -3425,10 +3443,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:M78"/>
+  <dimension ref="A1:M80"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C15" sqref="C15:J15"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="B57" sqref="B57:C57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -3452,7 +3470,7 @@
       <c r="H1" s="54"/>
       <c r="I1" s="54"/>
       <c r="J1" s="54"/>
-      <c r="K1" s="84"/>
+      <c r="K1" s="86"/>
     </row>
     <row r="2" spans="1:11">
       <c r="A2" s="55"/>
@@ -3465,7 +3483,7 @@
       <c r="H2" s="56"/>
       <c r="I2" s="56"/>
       <c r="J2" s="56"/>
-      <c r="K2" s="85"/>
+      <c r="K2" s="87"/>
     </row>
     <row r="3" spans="1:11">
       <c r="A3" s="55"/>
@@ -3478,7 +3496,7 @@
       <c r="H3" s="56"/>
       <c r="I3" s="56"/>
       <c r="J3" s="56"/>
-      <c r="K3" s="85"/>
+      <c r="K3" s="87"/>
     </row>
     <row r="4" spans="1:11">
       <c r="A4" s="55"/>
@@ -3491,7 +3509,7 @@
       <c r="H4" s="56"/>
       <c r="I4" s="56"/>
       <c r="J4" s="56"/>
-      <c r="K4" s="85"/>
+      <c r="K4" s="87"/>
     </row>
     <row r="5" spans="1:11">
       <c r="A5" s="55"/>
@@ -3504,7 +3522,7 @@
       <c r="H5" s="56"/>
       <c r="I5" s="56"/>
       <c r="J5" s="56"/>
-      <c r="K5" s="85"/>
+      <c r="K5" s="87"/>
     </row>
     <row r="6" spans="1:11">
       <c r="A6" s="57"/>
@@ -3517,7 +3535,7 @@
       <c r="H6" s="58"/>
       <c r="I6" s="58"/>
       <c r="J6" s="58"/>
-      <c r="K6" s="86"/>
+      <c r="K6" s="88"/>
     </row>
     <row r="8" ht="32.25" customHeight="1" spans="1:11">
       <c r="A8" s="59" t="s">
@@ -3532,7 +3550,7 @@
       <c r="H8" s="60"/>
       <c r="I8" s="60"/>
       <c r="J8" s="60"/>
-      <c r="K8" s="87"/>
+      <c r="K8" s="89"/>
     </row>
     <row r="9" ht="26.25" customHeight="1" spans="1:11">
       <c r="A9" s="61" t="s">
@@ -3551,7 +3569,7 @@
       <c r="H9" s="62"/>
       <c r="I9" s="62"/>
       <c r="J9" s="62"/>
-      <c r="K9" s="88" t="s">
+      <c r="K9" s="90" t="s">
         <v>5</v>
       </c>
     </row>
@@ -3572,7 +3590,7 @@
       <c r="H10" s="65"/>
       <c r="I10" s="65"/>
       <c r="J10" s="65"/>
-      <c r="K10" s="89" t="s">
+      <c r="K10" s="91" t="s">
         <v>7</v>
       </c>
     </row>
@@ -3591,7 +3609,7 @@
       <c r="H11" s="65"/>
       <c r="I11" s="65"/>
       <c r="J11" s="65"/>
-      <c r="K11" s="89" t="s">
+      <c r="K11" s="91" t="s">
         <v>7</v>
       </c>
     </row>
@@ -3610,7 +3628,7 @@
       <c r="H12" s="65"/>
       <c r="I12" s="65"/>
       <c r="J12" s="65"/>
-      <c r="K12" s="89" t="s">
+      <c r="K12" s="91" t="s">
         <v>10</v>
       </c>
     </row>
@@ -3629,7 +3647,7 @@
       <c r="H13" s="65"/>
       <c r="I13" s="65"/>
       <c r="J13" s="65"/>
-      <c r="K13" s="89" t="s">
+      <c r="K13" s="91" t="s">
         <v>7</v>
       </c>
     </row>
@@ -3648,7 +3666,7 @@
       <c r="H14" s="65"/>
       <c r="I14" s="65"/>
       <c r="J14" s="65"/>
-      <c r="K14" s="89" t="s">
+      <c r="K14" s="91" t="s">
         <v>13</v>
       </c>
     </row>
@@ -3663,7 +3681,7 @@
       <c r="H15" s="65"/>
       <c r="I15" s="65"/>
       <c r="J15" s="65"/>
-      <c r="K15" s="89"/>
+      <c r="K15" s="91"/>
     </row>
     <row r="16" spans="1:11">
       <c r="A16" s="63"/>
@@ -3676,7 +3694,7 @@
       <c r="H16" s="65"/>
       <c r="I16" s="65"/>
       <c r="J16" s="65"/>
-      <c r="K16" s="89"/>
+      <c r="K16" s="91"/>
     </row>
     <row r="17" spans="1:11">
       <c r="A17" s="63"/>
@@ -3689,7 +3707,7 @@
       <c r="H17" s="65"/>
       <c r="I17" s="65"/>
       <c r="J17" s="65"/>
-      <c r="K17" s="89"/>
+      <c r="K17" s="91"/>
     </row>
     <row r="18" spans="1:11">
       <c r="A18" s="63"/>
@@ -3702,7 +3720,7 @@
       <c r="H18" s="65"/>
       <c r="I18" s="65"/>
       <c r="J18" s="65"/>
-      <c r="K18" s="89"/>
+      <c r="K18" s="91"/>
     </row>
     <row r="19" spans="1:11">
       <c r="A19" s="63"/>
@@ -3715,7 +3733,7 @@
       <c r="H19" s="65"/>
       <c r="I19" s="65"/>
       <c r="J19" s="65"/>
-      <c r="K19" s="89"/>
+      <c r="K19" s="91"/>
     </row>
     <row r="20" spans="1:11">
       <c r="A20" s="63"/>
@@ -3728,7 +3746,7 @@
       <c r="H20" s="65"/>
       <c r="I20" s="65"/>
       <c r="J20" s="65"/>
-      <c r="K20" s="89"/>
+      <c r="K20" s="91"/>
     </row>
     <row r="21" spans="1:11">
       <c r="A21" s="63"/>
@@ -3741,7 +3759,7 @@
       <c r="H21" s="65"/>
       <c r="I21" s="65"/>
       <c r="J21" s="65"/>
-      <c r="K21" s="89"/>
+      <c r="K21" s="91"/>
     </row>
     <row r="22" spans="1:11">
       <c r="A22" s="63"/>
@@ -3754,7 +3772,7 @@
       <c r="H22" s="65"/>
       <c r="I22" s="65"/>
       <c r="J22" s="65"/>
-      <c r="K22" s="89"/>
+      <c r="K22" s="91"/>
     </row>
     <row r="23" spans="1:11">
       <c r="A23" s="63"/>
@@ -3767,7 +3785,7 @@
       <c r="H23" s="65"/>
       <c r="I23" s="65"/>
       <c r="J23" s="65"/>
-      <c r="K23" s="89"/>
+      <c r="K23" s="91"/>
     </row>
     <row r="24" spans="1:11">
       <c r="A24" s="63"/>
@@ -3780,7 +3798,7 @@
       <c r="H24" s="65"/>
       <c r="I24" s="65"/>
       <c r="J24" s="65"/>
-      <c r="K24" s="89"/>
+      <c r="K24" s="91"/>
     </row>
     <row r="25" spans="1:11">
       <c r="A25" s="63"/>
@@ -3793,7 +3811,7 @@
       <c r="H25" s="65"/>
       <c r="I25" s="65"/>
       <c r="J25" s="65"/>
-      <c r="K25" s="89"/>
+      <c r="K25" s="91"/>
     </row>
     <row r="26" spans="1:11">
       <c r="A26" s="63"/>
@@ -3806,7 +3824,7 @@
       <c r="H26" s="65"/>
       <c r="I26" s="65"/>
       <c r="J26" s="65"/>
-      <c r="K26" s="89"/>
+      <c r="K26" s="91"/>
     </row>
     <row r="27" spans="1:11">
       <c r="A27" s="63"/>
@@ -3819,7 +3837,7 @@
       <c r="H27" s="65"/>
       <c r="I27" s="65"/>
       <c r="J27" s="65"/>
-      <c r="K27" s="89"/>
+      <c r="K27" s="91"/>
     </row>
     <row r="28" spans="1:11">
       <c r="A28" s="63"/>
@@ -3832,7 +3850,7 @@
       <c r="H28" s="65"/>
       <c r="I28" s="65"/>
       <c r="J28" s="65"/>
-      <c r="K28" s="89"/>
+      <c r="K28" s="91"/>
     </row>
     <row r="29" spans="1:11">
       <c r="A29" s="63"/>
@@ -3845,7 +3863,7 @@
       <c r="H29" s="65"/>
       <c r="I29" s="65"/>
       <c r="J29" s="65"/>
-      <c r="K29" s="89"/>
+      <c r="K29" s="91"/>
     </row>
     <row r="30" spans="1:11">
       <c r="A30" s="63"/>
@@ -3858,7 +3876,7 @@
       <c r="H30" s="65"/>
       <c r="I30" s="65"/>
       <c r="J30" s="65"/>
-      <c r="K30" s="89"/>
+      <c r="K30" s="91"/>
     </row>
     <row r="31" spans="1:11">
       <c r="A31" s="63"/>
@@ -3871,7 +3889,7 @@
       <c r="H31" s="65"/>
       <c r="I31" s="65"/>
       <c r="J31" s="65"/>
-      <c r="K31" s="89"/>
+      <c r="K31" s="91"/>
     </row>
     <row r="32" spans="1:11">
       <c r="A32" s="63"/>
@@ -3884,7 +3902,7 @@
       <c r="H32" s="65"/>
       <c r="I32" s="65"/>
       <c r="J32" s="65"/>
-      <c r="K32" s="89"/>
+      <c r="K32" s="91"/>
     </row>
     <row r="33" spans="1:11">
       <c r="A33" s="67"/>
@@ -3897,7 +3915,7 @@
       <c r="H33" s="69"/>
       <c r="I33" s="69"/>
       <c r="J33" s="69"/>
-      <c r="K33" s="90"/>
+      <c r="K33" s="92"/>
     </row>
     <row r="35" ht="32.25" customHeight="1" spans="1:11">
       <c r="A35" s="59" t="s">
@@ -3912,7 +3930,7 @@
       <c r="H35" s="60"/>
       <c r="I35" s="60"/>
       <c r="J35" s="60"/>
-      <c r="K35" s="87"/>
+      <c r="K35" s="89"/>
     </row>
     <row r="36" ht="26.25" customHeight="1" spans="1:11">
       <c r="A36" s="70" t="s">
@@ -3931,7 +3949,7 @@
       <c r="H36" s="72"/>
       <c r="I36" s="72"/>
       <c r="J36" s="72"/>
-      <c r="K36" s="88" t="s">
+      <c r="K36" s="90" t="s">
         <v>5</v>
       </c>
     </row>
@@ -3950,7 +3968,7 @@
       <c r="H37" s="65"/>
       <c r="I37" s="65"/>
       <c r="J37" s="65"/>
-      <c r="K37" s="89"/>
+      <c r="K37" s="91"/>
     </row>
     <row r="38" ht="16.5" customHeight="1" spans="1:11">
       <c r="A38" s="73" t="s">
@@ -3967,7 +3985,7 @@
       <c r="H38" s="65"/>
       <c r="I38" s="65"/>
       <c r="J38" s="65"/>
-      <c r="K38" s="89"/>
+      <c r="K38" s="91"/>
     </row>
     <row r="39" ht="16.5" customHeight="1" spans="1:11">
       <c r="A39" s="73" t="s">
@@ -3984,7 +4002,7 @@
       <c r="H39" s="65"/>
       <c r="I39" s="65"/>
       <c r="J39" s="65"/>
-      <c r="K39" s="89"/>
+      <c r="K39" s="91"/>
     </row>
     <row r="40" ht="16.5" customHeight="1" spans="1:11">
       <c r="A40" s="73" t="s">
@@ -4001,7 +4019,7 @@
       <c r="H40" s="65"/>
       <c r="I40" s="65"/>
       <c r="J40" s="65"/>
-      <c r="K40" s="89"/>
+      <c r="K40" s="91"/>
     </row>
     <row r="41" ht="16.5" customHeight="1" spans="1:11">
       <c r="A41" s="78" t="s">
@@ -4018,7 +4036,7 @@
       <c r="H41" s="65"/>
       <c r="I41" s="65"/>
       <c r="J41" s="65"/>
-      <c r="K41" s="89"/>
+      <c r="K41" s="91"/>
     </row>
     <row r="42" ht="16.5" customHeight="1" spans="1:11">
       <c r="A42" s="78" t="s">
@@ -4035,7 +4053,7 @@
       <c r="H42" s="65"/>
       <c r="I42" s="65"/>
       <c r="J42" s="65"/>
-      <c r="K42" s="89"/>
+      <c r="K42" s="91"/>
     </row>
     <row r="43" ht="16.5" customHeight="1" spans="1:11">
       <c r="A43" s="78" t="s">
@@ -4052,7 +4070,7 @@
       <c r="H43" s="65"/>
       <c r="I43" s="65"/>
       <c r="J43" s="65"/>
-      <c r="K43" s="89"/>
+      <c r="K43" s="91"/>
     </row>
     <row r="44" ht="16.5" customHeight="1" spans="1:11">
       <c r="A44" s="78" t="s">
@@ -4069,7 +4087,7 @@
       <c r="H44" s="65"/>
       <c r="I44" s="65"/>
       <c r="J44" s="65"/>
-      <c r="K44" s="89"/>
+      <c r="K44" s="91"/>
     </row>
     <row r="45" ht="16.5" customHeight="1" spans="1:11">
       <c r="A45" s="78" t="s">
@@ -4086,7 +4104,7 @@
       <c r="H45" s="65"/>
       <c r="I45" s="65"/>
       <c r="J45" s="65"/>
-      <c r="K45" s="89"/>
+      <c r="K45" s="91"/>
     </row>
     <row r="46" ht="16.5" customHeight="1" spans="1:11">
       <c r="A46" s="79" t="s">
@@ -4103,7 +4121,7 @@
       <c r="H46" s="65"/>
       <c r="I46" s="65"/>
       <c r="J46" s="65"/>
-      <c r="K46" s="89"/>
+      <c r="K46" s="91"/>
     </row>
     <row r="47" ht="16.5" customHeight="1" spans="1:11">
       <c r="A47" s="81" t="s">
@@ -4120,7 +4138,7 @@
       <c r="H47" s="65"/>
       <c r="I47" s="65"/>
       <c r="J47" s="65"/>
-      <c r="K47" s="89"/>
+      <c r="K47" s="91"/>
     </row>
     <row r="48" ht="16.5" customHeight="1" spans="1:11">
       <c r="A48" s="81" t="s">
@@ -4137,7 +4155,7 @@
       <c r="H48" s="65"/>
       <c r="I48" s="65"/>
       <c r="J48" s="65"/>
-      <c r="K48" s="89"/>
+      <c r="K48" s="91"/>
     </row>
     <row r="49" ht="16.5" customHeight="1" spans="1:11">
       <c r="A49" s="78" t="s">
@@ -4154,7 +4172,7 @@
       <c r="H49" s="65"/>
       <c r="I49" s="65"/>
       <c r="J49" s="65"/>
-      <c r="K49" s="89"/>
+      <c r="K49" s="91"/>
     </row>
     <row r="50" ht="16.5" customHeight="1" spans="1:11">
       <c r="A50" s="78" t="s">
@@ -4171,7 +4189,7 @@
       <c r="H50" s="65"/>
       <c r="I50" s="65"/>
       <c r="J50" s="65"/>
-      <c r="K50" s="89"/>
+      <c r="K50" s="91"/>
     </row>
     <row r="51" ht="16.5" customHeight="1" spans="1:11">
       <c r="A51" s="78" t="s">
@@ -4188,7 +4206,7 @@
       <c r="H51" s="65"/>
       <c r="I51" s="65"/>
       <c r="J51" s="65"/>
-      <c r="K51" s="89"/>
+      <c r="K51" s="91"/>
     </row>
     <row r="52" ht="16.5" customHeight="1" spans="1:11">
       <c r="A52" s="78" t="s">
@@ -4205,7 +4223,7 @@
       <c r="H52" s="65"/>
       <c r="I52" s="65"/>
       <c r="J52" s="65"/>
-      <c r="K52" s="89"/>
+      <c r="K52" s="91"/>
     </row>
     <row r="53" ht="16.5" customHeight="1" spans="1:11">
       <c r="A53" s="78" t="s">
@@ -4222,7 +4240,7 @@
       <c r="H53" s="65"/>
       <c r="I53" s="65"/>
       <c r="J53" s="65"/>
-      <c r="K53" s="89"/>
+      <c r="K53" s="91"/>
     </row>
     <row r="54" ht="16.5" customHeight="1" spans="1:11">
       <c r="A54" s="78" t="s">
@@ -4238,7 +4256,7 @@
       <c r="H54" s="65"/>
       <c r="I54" s="65"/>
       <c r="J54" s="65"/>
-      <c r="K54" s="89"/>
+      <c r="K54" s="91"/>
     </row>
     <row r="55" ht="16.5" customHeight="1" spans="1:11">
       <c r="A55" s="73" t="s">
@@ -4255,7 +4273,7 @@
       <c r="H55" s="65"/>
       <c r="I55" s="65"/>
       <c r="J55" s="65"/>
-      <c r="K55" s="89"/>
+      <c r="K55" s="91"/>
     </row>
     <row r="56" ht="16.5" customHeight="1" spans="1:11">
       <c r="A56" s="73" t="s">
@@ -4272,49 +4290,50 @@
       <c r="H56" s="65"/>
       <c r="I56" s="65"/>
       <c r="J56" s="65"/>
-      <c r="K56" s="89"/>
+      <c r="K56" s="91"/>
     </row>
     <row r="57" ht="16.5" customHeight="1" spans="1:11">
       <c r="A57" s="73" t="s">
         <v>58</v>
       </c>
-      <c r="B57" s="75" t="s">
+      <c r="B57" s="84" t="s">
         <v>59</v>
       </c>
-      <c r="C57" s="77"/>
-      <c r="D57" s="65"/>
-      <c r="E57" s="65"/>
-      <c r="F57" s="65"/>
-      <c r="G57" s="65"/>
-      <c r="H57" s="65"/>
-      <c r="I57" s="65"/>
-      <c r="J57" s="65"/>
-      <c r="K57" s="89"/>
+      <c r="C57" s="84"/>
+      <c r="D57" s="85"/>
+      <c r="E57" s="85"/>
+      <c r="F57" s="85"/>
+      <c r="G57" s="85"/>
+      <c r="H57" s="85"/>
+      <c r="I57" s="85"/>
+      <c r="J57" s="85"/>
+      <c r="K57" s="91"/>
     </row>
     <row r="58" ht="16.5" customHeight="1" spans="1:11">
-      <c r="A58" s="79" t="s">
+      <c r="A58" s="73" t="s">
         <v>60</v>
       </c>
-      <c r="B58" s="80" t="s">
+      <c r="B58" s="84" t="s">
         <v>61</v>
       </c>
-      <c r="D58" s="65"/>
-      <c r="E58" s="65"/>
-      <c r="F58" s="65"/>
-      <c r="G58" s="65"/>
-      <c r="H58" s="65"/>
-      <c r="I58" s="65"/>
-      <c r="J58" s="65"/>
-      <c r="K58" s="89"/>
+      <c r="C58" s="84"/>
+      <c r="D58" s="85"/>
+      <c r="E58" s="85"/>
+      <c r="F58" s="85"/>
+      <c r="G58" s="85"/>
+      <c r="H58" s="85"/>
+      <c r="I58" s="85"/>
+      <c r="J58" s="85"/>
+      <c r="K58" s="91"/>
     </row>
     <row r="59" ht="16.5" customHeight="1" spans="1:11">
-      <c r="A59" s="79" t="s">
+      <c r="A59" s="73" t="s">
         <v>62</v>
       </c>
-      <c r="B59" s="80" t="s">
+      <c r="B59" s="75" t="s">
         <v>63</v>
       </c>
-      <c r="C59" s="83"/>
+      <c r="C59" s="77"/>
       <c r="D59" s="65"/>
       <c r="E59" s="65"/>
       <c r="F59" s="65"/>
@@ -4322,7 +4341,7 @@
       <c r="H59" s="65"/>
       <c r="I59" s="65"/>
       <c r="J59" s="65"/>
-      <c r="K59" s="89"/>
+      <c r="K59" s="91"/>
     </row>
     <row r="60" ht="16.5" customHeight="1" spans="1:11">
       <c r="A60" s="79" t="s">
@@ -4331,7 +4350,6 @@
       <c r="B60" s="80" t="s">
         <v>65</v>
       </c>
-      <c r="C60" s="83"/>
       <c r="D60" s="65"/>
       <c r="E60" s="65"/>
       <c r="F60" s="65"/>
@@ -4339,7 +4357,7 @@
       <c r="H60" s="65"/>
       <c r="I60" s="65"/>
       <c r="J60" s="65"/>
-      <c r="K60" s="89"/>
+      <c r="K60" s="91"/>
     </row>
     <row r="61" ht="16.5" customHeight="1" spans="1:11">
       <c r="A61" s="79" t="s">
@@ -4356,7 +4374,7 @@
       <c r="H61" s="65"/>
       <c r="I61" s="65"/>
       <c r="J61" s="65"/>
-      <c r="K61" s="89"/>
+      <c r="K61" s="91"/>
     </row>
     <row r="62" ht="16.5" customHeight="1" spans="1:11">
       <c r="A62" s="79" t="s">
@@ -4373,7 +4391,7 @@
       <c r="H62" s="65"/>
       <c r="I62" s="65"/>
       <c r="J62" s="65"/>
-      <c r="K62" s="89"/>
+      <c r="K62" s="91"/>
     </row>
     <row r="63" ht="16.5" customHeight="1" spans="1:11">
       <c r="A63" s="79" t="s">
@@ -4390,13 +4408,13 @@
       <c r="H63" s="65"/>
       <c r="I63" s="65"/>
       <c r="J63" s="65"/>
-      <c r="K63" s="89"/>
+      <c r="K63" s="91"/>
     </row>
     <row r="64" ht="16.5" customHeight="1" spans="1:11">
-      <c r="A64" s="81" t="s">
+      <c r="A64" s="79" t="s">
         <v>72</v>
       </c>
-      <c r="B64" s="83" t="s">
+      <c r="B64" s="80" t="s">
         <v>73</v>
       </c>
       <c r="C64" s="83"/>
@@ -4407,13 +4425,13 @@
       <c r="H64" s="65"/>
       <c r="I64" s="65"/>
       <c r="J64" s="65"/>
-      <c r="K64" s="89"/>
+      <c r="K64" s="91"/>
     </row>
     <row r="65" ht="16.5" customHeight="1" spans="1:11">
-      <c r="A65" s="81" t="s">
+      <c r="A65" s="79" t="s">
         <v>74</v>
       </c>
-      <c r="B65" s="83" t="s">
+      <c r="B65" s="80" t="s">
         <v>75</v>
       </c>
       <c r="C65" s="83"/>
@@ -4424,13 +4442,13 @@
       <c r="H65" s="65"/>
       <c r="I65" s="65"/>
       <c r="J65" s="65"/>
-      <c r="K65" s="89"/>
-    </row>
-    <row r="66" ht="17.25" spans="1:11">
+      <c r="K65" s="91"/>
+    </row>
+    <row r="66" ht="16.5" customHeight="1" spans="1:11">
       <c r="A66" s="81" t="s">
         <v>76</v>
       </c>
-      <c r="B66" s="91" t="s">
+      <c r="B66" s="83" t="s">
         <v>77</v>
       </c>
       <c r="C66" s="83"/>
@@ -4441,16 +4459,16 @@
       <c r="H66" s="65"/>
       <c r="I66" s="65"/>
       <c r="J66" s="65"/>
-      <c r="K66" s="89"/>
-    </row>
-    <row r="67" ht="17.25" spans="1:11">
+      <c r="K66" s="91"/>
+    </row>
+    <row r="67" ht="16.5" customHeight="1" spans="1:11">
       <c r="A67" s="81" t="s">
         <v>78</v>
       </c>
-      <c r="B67" s="80" t="s">
+      <c r="B67" s="83" t="s">
         <v>79</v>
       </c>
-      <c r="C67" s="80"/>
+      <c r="C67" s="83"/>
       <c r="D67" s="65"/>
       <c r="E67" s="65"/>
       <c r="F67" s="65"/>
@@ -4458,16 +4476,16 @@
       <c r="H67" s="65"/>
       <c r="I67" s="65"/>
       <c r="J67" s="65"/>
-      <c r="K67" s="89"/>
-    </row>
-    <row r="68" ht="17.25" spans="1:13">
+      <c r="K67" s="91"/>
+    </row>
+    <row r="68" ht="17.25" spans="1:11">
       <c r="A68" s="81" t="s">
         <v>80</v>
       </c>
-      <c r="B68" s="80" t="s">
+      <c r="B68" s="93" t="s">
         <v>81</v>
       </c>
-      <c r="C68" s="80"/>
+      <c r="C68" s="83"/>
       <c r="D68" s="65"/>
       <c r="E68" s="65"/>
       <c r="F68" s="65"/>
@@ -4475,14 +4493,16 @@
       <c r="H68" s="65"/>
       <c r="I68" s="65"/>
       <c r="J68" s="65"/>
-      <c r="K68" s="66"/>
-      <c r="L68" s="92"/>
-      <c r="M68" s="92"/>
-    </row>
-    <row r="69" ht="17.25" spans="1:13">
-      <c r="A69" s="73"/>
-      <c r="B69" s="75"/>
-      <c r="C69" s="77"/>
+      <c r="K68" s="91"/>
+    </row>
+    <row r="69" ht="17.25" spans="1:11">
+      <c r="A69" s="81" t="s">
+        <v>82</v>
+      </c>
+      <c r="B69" s="80" t="s">
+        <v>83</v>
+      </c>
+      <c r="C69" s="80"/>
       <c r="D69" s="65"/>
       <c r="E69" s="65"/>
       <c r="F69" s="65"/>
@@ -4490,14 +4510,16 @@
       <c r="H69" s="65"/>
       <c r="I69" s="65"/>
       <c r="J69" s="65"/>
-      <c r="K69" s="66"/>
-      <c r="L69" s="92"/>
-      <c r="M69" s="92"/>
+      <c r="K69" s="91"/>
     </row>
     <row r="70" ht="17.25" spans="1:13">
-      <c r="A70" s="73"/>
-      <c r="B70" s="75"/>
-      <c r="C70" s="77"/>
+      <c r="A70" s="81" t="s">
+        <v>84</v>
+      </c>
+      <c r="B70" s="80" t="s">
+        <v>85</v>
+      </c>
+      <c r="C70" s="80"/>
       <c r="D70" s="65"/>
       <c r="E70" s="65"/>
       <c r="F70" s="65"/>
@@ -4506,8 +4528,8 @@
       <c r="I70" s="65"/>
       <c r="J70" s="65"/>
       <c r="K70" s="66"/>
-      <c r="L70" s="92"/>
-      <c r="M70" s="92"/>
+      <c r="L70" s="94"/>
+      <c r="M70" s="94"/>
     </row>
     <row r="71" ht="17.25" spans="1:13">
       <c r="A71" s="73"/>
@@ -4521,8 +4543,8 @@
       <c r="I71" s="65"/>
       <c r="J71" s="65"/>
       <c r="K71" s="66"/>
-      <c r="L71" s="92"/>
-      <c r="M71" s="92"/>
+      <c r="L71" s="94"/>
+      <c r="M71" s="94"/>
     </row>
     <row r="72" ht="17.25" spans="1:13">
       <c r="A72" s="73"/>
@@ -4536,8 +4558,8 @@
       <c r="I72" s="65"/>
       <c r="J72" s="65"/>
       <c r="K72" s="66"/>
-      <c r="L72" s="92"/>
-      <c r="M72" s="92"/>
+      <c r="L72" s="94"/>
+      <c r="M72" s="94"/>
     </row>
     <row r="73" ht="17.25" spans="1:13">
       <c r="A73" s="73"/>
@@ -4551,8 +4573,8 @@
       <c r="I73" s="65"/>
       <c r="J73" s="65"/>
       <c r="K73" s="66"/>
-      <c r="L73" s="92"/>
-      <c r="M73" s="92"/>
+      <c r="L73" s="94"/>
+      <c r="M73" s="94"/>
     </row>
     <row r="74" ht="17.25" spans="1:13">
       <c r="A74" s="73"/>
@@ -4566,8 +4588,8 @@
       <c r="I74" s="65"/>
       <c r="J74" s="65"/>
       <c r="K74" s="66"/>
-      <c r="L74" s="92"/>
-      <c r="M74" s="92"/>
+      <c r="L74" s="94"/>
+      <c r="M74" s="94"/>
     </row>
     <row r="75" ht="17.25" spans="1:13">
       <c r="A75" s="73"/>
@@ -4581,8 +4603,8 @@
       <c r="I75" s="65"/>
       <c r="J75" s="65"/>
       <c r="K75" s="66"/>
-      <c r="L75" s="92"/>
-      <c r="M75" s="92"/>
+      <c r="L75" s="94"/>
+      <c r="M75" s="94"/>
     </row>
     <row r="76" ht="17.25" spans="1:13">
       <c r="A76" s="73"/>
@@ -4596,8 +4618,8 @@
       <c r="I76" s="65"/>
       <c r="J76" s="65"/>
       <c r="K76" s="66"/>
-      <c r="L76" s="92"/>
-      <c r="M76" s="92"/>
+      <c r="L76" s="94"/>
+      <c r="M76" s="94"/>
     </row>
     <row r="77" ht="17.25" spans="1:13">
       <c r="A77" s="73"/>
@@ -4611,8 +4633,8 @@
       <c r="I77" s="65"/>
       <c r="J77" s="65"/>
       <c r="K77" s="66"/>
-      <c r="L77" s="92"/>
-      <c r="M77" s="92"/>
+      <c r="L77" s="94"/>
+      <c r="M77" s="94"/>
     </row>
     <row r="78" ht="17.25" spans="1:13">
       <c r="A78" s="73"/>
@@ -4626,11 +4648,41 @@
       <c r="I78" s="65"/>
       <c r="J78" s="65"/>
       <c r="K78" s="66"/>
-      <c r="L78" s="92"/>
-      <c r="M78" s="92"/>
+      <c r="L78" s="94"/>
+      <c r="M78" s="94"/>
+    </row>
+    <row r="79" ht="17.25" spans="1:13">
+      <c r="A79" s="73"/>
+      <c r="B79" s="75"/>
+      <c r="C79" s="77"/>
+      <c r="D79" s="65"/>
+      <c r="E79" s="65"/>
+      <c r="F79" s="65"/>
+      <c r="G79" s="65"/>
+      <c r="H79" s="65"/>
+      <c r="I79" s="65"/>
+      <c r="J79" s="65"/>
+      <c r="K79" s="66"/>
+      <c r="L79" s="94"/>
+      <c r="M79" s="94"/>
+    </row>
+    <row r="80" ht="17.25" spans="1:13">
+      <c r="A80" s="73"/>
+      <c r="B80" s="75"/>
+      <c r="C80" s="77"/>
+      <c r="D80" s="65"/>
+      <c r="E80" s="65"/>
+      <c r="F80" s="65"/>
+      <c r="G80" s="65"/>
+      <c r="H80" s="65"/>
+      <c r="I80" s="65"/>
+      <c r="J80" s="65"/>
+      <c r="K80" s="66"/>
+      <c r="L80" s="94"/>
+      <c r="M80" s="94"/>
     </row>
   </sheetData>
-  <mergeCells count="114">
+  <mergeCells count="118">
     <mergeCell ref="A8:K8"/>
     <mergeCell ref="C9:J9"/>
     <mergeCell ref="C10:J10"/>
@@ -4744,6 +4796,10 @@
     <mergeCell ref="D77:J77"/>
     <mergeCell ref="B78:C78"/>
     <mergeCell ref="D78:J78"/>
+    <mergeCell ref="B79:C79"/>
+    <mergeCell ref="D79:J79"/>
+    <mergeCell ref="B80:C80"/>
+    <mergeCell ref="D80:J80"/>
     <mergeCell ref="A1:K6"/>
   </mergeCells>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4757,7 +4813,7 @@
   <sheetPr/>
   <dimension ref="A1:R183"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A108" activePane="bottomLeft" state="frozen"/>
       <selection/>
       <selection pane="bottomLeft" activeCell="K126" sqref="K126"/>
@@ -4779,33 +4835,33 @@
   <sheetData>
     <row r="1" ht="16.5" spans="1:18">
       <c r="A1" s="6" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="D1" s="6" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="E1" s="6" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="F1" s="6" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="G1" s="6" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="H1" s="6"/>
       <c r="I1" s="6"/>
       <c r="J1" s="6" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="K1" s="6" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="L1" s="29"/>
       <c r="M1" s="29"/>
@@ -4823,13 +4879,13 @@
       <c r="E2" s="6"/>
       <c r="F2" s="6"/>
       <c r="G2" s="6" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="H2" s="6" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="I2" s="6" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="J2" s="6"/>
       <c r="K2" s="6"/>
@@ -4846,24 +4902,24 @@
         <v>1</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="D3" s="9"/>
       <c r="E3" s="8"/>
       <c r="F3" s="8"/>
       <c r="G3" s="8" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="H3" s="8" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="I3" s="13"/>
       <c r="J3" s="13"/>
       <c r="K3" s="30" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="L3" s="31"/>
       <c r="M3" s="31"/>
@@ -4878,20 +4934,20 @@
         <v>2</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="C4" s="10"/>
       <c r="D4" s="11"/>
       <c r="E4" s="12"/>
       <c r="F4" s="13"/>
       <c r="G4" s="8" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="H4" s="13"/>
       <c r="I4" s="13"/>
       <c r="J4" s="13"/>
       <c r="K4" s="32" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="L4" s="29"/>
       <c r="M4" s="29"/>
@@ -4906,20 +4962,20 @@
         <v>3</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="C5" s="10"/>
       <c r="D5" s="11"/>
       <c r="E5" s="12"/>
       <c r="F5" s="13"/>
       <c r="G5" s="8" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="H5" s="13"/>
       <c r="I5" s="13"/>
       <c r="J5" s="13"/>
       <c r="K5" s="32" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="L5" s="29"/>
       <c r="M5" s="29"/>
@@ -4934,22 +4990,22 @@
         <v>4</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="C6" s="10"/>
       <c r="D6" s="11"/>
       <c r="E6" s="12"/>
       <c r="F6" s="13"/>
       <c r="G6" s="8" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="H6" s="13" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="I6" s="13"/>
       <c r="J6" s="13"/>
       <c r="K6" s="32" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="L6" s="29"/>
       <c r="M6" s="29"/>
@@ -4964,20 +5020,20 @@
         <v>5</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="C7" s="10"/>
       <c r="D7" s="11"/>
       <c r="E7" s="12"/>
       <c r="F7" s="13"/>
       <c r="G7" s="8" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="H7" s="13"/>
       <c r="I7" s="13"/>
       <c r="J7" s="13"/>
       <c r="K7" s="32" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="L7" s="29"/>
       <c r="M7" s="29"/>
@@ -4992,20 +5048,20 @@
         <v>6</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="C8" s="10"/>
       <c r="D8" s="11"/>
       <c r="E8" s="12"/>
       <c r="F8" s="13"/>
       <c r="G8" s="8" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="H8" s="13"/>
       <c r="I8" s="13"/>
       <c r="J8" s="13"/>
       <c r="K8" s="32" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="L8" s="29"/>
       <c r="M8" s="29"/>
@@ -5020,22 +5076,22 @@
         <v>7</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="C9" s="10"/>
       <c r="D9" s="11"/>
       <c r="E9" s="12"/>
       <c r="F9" s="13"/>
       <c r="G9" s="8" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="H9" s="13" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="I9" s="13"/>
       <c r="J9" s="13"/>
       <c r="K9" s="32" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="L9" s="29"/>
       <c r="M9" s="29"/>
@@ -5050,20 +5106,20 @@
         <v>8</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="C10" s="10"/>
       <c r="D10" s="11"/>
       <c r="E10" s="12"/>
       <c r="F10" s="12"/>
       <c r="G10" s="8" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="H10" s="12"/>
       <c r="I10" s="13"/>
       <c r="J10" s="13"/>
       <c r="K10" s="32" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="L10" s="29"/>
       <c r="M10" s="29"/>
@@ -5078,22 +5134,22 @@
         <v>9</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="C11" s="10"/>
       <c r="D11" s="11"/>
       <c r="E11" s="12"/>
       <c r="F11" s="13" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="G11" s="8" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="H11" s="8"/>
       <c r="I11" s="8"/>
       <c r="J11" s="13"/>
       <c r="K11" s="32" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="L11" s="29"/>
       <c r="M11" s="29"/>
@@ -5108,24 +5164,24 @@
         <v>10</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="C12" s="14"/>
       <c r="D12" s="15"/>
       <c r="E12" s="12"/>
       <c r="F12" s="13"/>
       <c r="G12" s="8" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="H12" s="8" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="I12" s="8" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="J12" s="13"/>
       <c r="K12" s="32" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="L12" s="29"/>
       <c r="M12" s="29"/>
@@ -5140,24 +5196,24 @@
         <v>11</v>
       </c>
       <c r="B13" s="13" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="C13" s="10" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="D13" s="16" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="E13" s="12"/>
       <c r="F13" s="13"/>
       <c r="G13" s="8" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="H13" s="13"/>
       <c r="I13" s="13"/>
       <c r="J13" s="13"/>
       <c r="K13" s="32" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="L13" s="29"/>
       <c r="M13" s="29"/>
@@ -5172,24 +5228,24 @@
         <v>12</v>
       </c>
       <c r="B14" s="13" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="C14" s="10"/>
       <c r="D14" s="11"/>
       <c r="E14" s="17"/>
       <c r="F14" s="13"/>
       <c r="G14" s="8" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="H14" s="8" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="I14" s="8" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="J14" s="13"/>
       <c r="K14" s="32" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="L14" s="29"/>
       <c r="M14" s="29"/>
@@ -5204,22 +5260,22 @@
         <v>13</v>
       </c>
       <c r="B15" s="13" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="C15" s="10"/>
       <c r="D15" s="11"/>
       <c r="E15" s="18"/>
       <c r="F15" s="13"/>
       <c r="G15" s="8" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="H15" s="8" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="I15" s="13"/>
       <c r="J15" s="13"/>
       <c r="K15" s="32" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="L15" s="29"/>
       <c r="M15" s="29"/>
@@ -5234,22 +5290,22 @@
         <v>14</v>
       </c>
       <c r="B16" s="13" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="C16" s="10"/>
       <c r="D16" s="15"/>
       <c r="E16" s="15"/>
       <c r="F16" s="13"/>
       <c r="G16" s="8" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="H16" s="8" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="I16" s="13"/>
       <c r="J16" s="13"/>
       <c r="K16" s="32" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="L16" s="29"/>
       <c r="M16" s="29"/>
@@ -5264,22 +5320,22 @@
         <v>15</v>
       </c>
       <c r="B17" s="12" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="C17" s="10"/>
       <c r="D17" s="19" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="E17" s="12"/>
       <c r="F17" s="13"/>
       <c r="G17" s="8" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="H17" s="13"/>
       <c r="I17" s="13"/>
       <c r="J17" s="13"/>
       <c r="K17" s="32" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
     </row>
     <row r="18" ht="16.5" customHeight="1" spans="1:11">
@@ -5287,20 +5343,20 @@
         <v>16</v>
       </c>
       <c r="B18" s="12" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="C18" s="10"/>
       <c r="D18" s="11"/>
       <c r="E18" s="13"/>
       <c r="F18" s="12"/>
       <c r="G18" s="8" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="H18" s="13"/>
       <c r="I18" s="13"/>
       <c r="J18" s="13"/>
       <c r="K18" s="33" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
     </row>
     <row r="19" ht="16.5" customHeight="1" spans="1:11">
@@ -5308,20 +5364,20 @@
         <v>17</v>
       </c>
       <c r="B19" s="12" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="C19" s="10"/>
       <c r="D19" s="11"/>
       <c r="E19" s="13"/>
       <c r="F19" s="12"/>
       <c r="G19" s="8" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="H19" s="13"/>
       <c r="I19" s="13"/>
       <c r="J19" s="13"/>
       <c r="K19" s="33" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
     </row>
     <row r="20" ht="16.5" spans="1:11">
@@ -5329,22 +5385,22 @@
         <v>18</v>
       </c>
       <c r="B20" s="12" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="C20" s="10"/>
       <c r="D20" s="15"/>
       <c r="E20" s="13"/>
       <c r="F20" s="12"/>
       <c r="G20" s="8" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="H20" s="8" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="I20" s="13"/>
       <c r="J20" s="13"/>
       <c r="K20" s="33" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
     </row>
     <row r="21" ht="16.5" customHeight="1" spans="1:11">
@@ -5352,22 +5408,22 @@
         <v>19</v>
       </c>
       <c r="B21" s="13" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="C21" s="14"/>
       <c r="D21" s="13" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="E21" s="13"/>
       <c r="F21" s="12"/>
       <c r="G21" s="8" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="H21" s="13"/>
       <c r="I21" s="13"/>
       <c r="J21" s="13"/>
       <c r="K21" s="33" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
     </row>
     <row r="22" s="2" customFormat="1" ht="16.5" customHeight="1" spans="1:11">
@@ -5375,26 +5431,26 @@
         <v>20</v>
       </c>
       <c r="B22" s="20" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="C22" s="20" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="D22" s="20"/>
       <c r="E22" s="12"/>
       <c r="F22" s="20"/>
       <c r="G22" s="13" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="H22" s="13" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="I22" s="13" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="J22" s="13"/>
       <c r="K22" s="34" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
     </row>
     <row r="23" s="2" customFormat="1" ht="16.5" customHeight="1" spans="1:11">
@@ -5402,24 +5458,24 @@
         <v>21</v>
       </c>
       <c r="B23" s="20" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="C23" s="20"/>
       <c r="D23" s="20"/>
       <c r="E23" s="12"/>
       <c r="F23" s="20"/>
       <c r="G23" s="13" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="H23" s="13" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="I23" s="13" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="J23" s="13"/>
       <c r="K23" s="34" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
     </row>
     <row r="24" s="2" customFormat="1" ht="16.5" customHeight="1" spans="1:11">
@@ -5427,24 +5483,24 @@
         <v>22</v>
       </c>
       <c r="B24" s="20" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="C24" s="20"/>
       <c r="D24" s="20"/>
       <c r="E24" s="12"/>
       <c r="F24" s="20"/>
       <c r="G24" s="13" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="H24" s="13" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="I24" s="13" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="J24" s="13"/>
       <c r="K24" s="34" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
     </row>
     <row r="25" s="2" customFormat="1" ht="49.5" spans="1:11">
@@ -5452,26 +5508,26 @@
         <v>23</v>
       </c>
       <c r="B25" s="20" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="C25" s="20"/>
       <c r="D25" s="20"/>
       <c r="E25" s="12"/>
       <c r="F25" s="20" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="G25" s="13" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="H25" s="13" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="I25" s="13" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="J25" s="13"/>
       <c r="K25" s="34" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
     </row>
     <row r="26" s="2" customFormat="1" ht="16.5" customHeight="1" spans="1:11">
@@ -5479,24 +5535,24 @@
         <v>24</v>
       </c>
       <c r="B26" s="20" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="C26" s="20"/>
       <c r="D26" s="20"/>
       <c r="E26" s="13"/>
       <c r="F26" s="20"/>
       <c r="G26" s="13" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="H26" s="13" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="I26" s="13" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="J26" s="13"/>
       <c r="K26" s="34" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
     </row>
     <row r="27" s="2" customFormat="1" ht="16.5" customHeight="1" spans="1:11">
@@ -5504,24 +5560,24 @@
         <v>25</v>
       </c>
       <c r="B27" s="20" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="C27" s="20"/>
       <c r="D27" s="20"/>
       <c r="E27" s="12"/>
       <c r="F27" s="20"/>
       <c r="G27" s="13" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="H27" s="13" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="I27" s="13" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="J27" s="13"/>
       <c r="K27" s="34" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
     </row>
     <row r="28" s="2" customFormat="1" ht="16.5" customHeight="1" spans="1:11">
@@ -5529,24 +5585,24 @@
         <v>26</v>
       </c>
       <c r="B28" s="20" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="C28" s="20"/>
       <c r="D28" s="20"/>
       <c r="E28" s="12"/>
       <c r="F28" s="20"/>
       <c r="G28" s="13" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="H28" s="13" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="I28" s="13" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="J28" s="13"/>
       <c r="K28" s="34" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
     </row>
     <row r="29" s="2" customFormat="1" ht="16.5" customHeight="1" spans="1:11">
@@ -5554,26 +5610,26 @@
         <v>27</v>
       </c>
       <c r="B29" s="20" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="C29" s="20"/>
       <c r="D29" s="20" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="E29" s="12"/>
       <c r="F29" s="21"/>
       <c r="G29" s="13" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="H29" s="13" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="I29" s="13" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="J29" s="12"/>
       <c r="K29" s="34" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
     </row>
     <row r="30" s="2" customFormat="1" ht="16.5" customHeight="1" spans="1:11">
@@ -5581,24 +5637,24 @@
         <v>28</v>
       </c>
       <c r="B30" s="20" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="C30" s="20"/>
       <c r="D30" s="20"/>
       <c r="E30" s="12"/>
       <c r="F30" s="20"/>
       <c r="G30" s="13" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="H30" s="13" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="I30" s="13" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="J30" s="13"/>
       <c r="K30" s="34" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
     </row>
     <row r="31" s="2" customFormat="1" ht="33" spans="1:11">
@@ -5606,26 +5662,26 @@
         <v>29</v>
       </c>
       <c r="B31" s="20" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="C31" s="20"/>
       <c r="D31" s="20"/>
       <c r="E31" s="12"/>
       <c r="F31" s="20" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="G31" s="13" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="H31" s="13" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="I31" s="13" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="J31" s="13"/>
       <c r="K31" s="34" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
     </row>
     <row r="32" s="2" customFormat="1" ht="16.5" spans="1:11">
@@ -5633,24 +5689,24 @@
         <v>30</v>
       </c>
       <c r="B32" s="20" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="C32" s="20"/>
       <c r="D32" s="20"/>
       <c r="E32" s="12"/>
       <c r="F32" s="20"/>
       <c r="G32" s="13" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="H32" s="13" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="I32" s="13" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="J32" s="13"/>
       <c r="K32" s="34" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
     </row>
     <row r="33" s="2" customFormat="1" ht="49.5" spans="1:11">
@@ -5658,26 +5714,26 @@
         <v>31</v>
       </c>
       <c r="B33" s="20" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="C33" s="20"/>
       <c r="D33" s="20"/>
       <c r="E33" s="12"/>
       <c r="F33" s="20" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="G33" s="13" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="H33" s="13" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="I33" s="13" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="J33" s="13"/>
       <c r="K33" s="34" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
     </row>
     <row r="34" s="2" customFormat="1" ht="16.5" spans="1:11">
@@ -5685,24 +5741,24 @@
         <v>32</v>
       </c>
       <c r="B34" s="20" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="C34" s="20"/>
       <c r="D34" s="20"/>
       <c r="E34" s="12"/>
       <c r="F34" s="20"/>
       <c r="G34" s="13" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="H34" s="13" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="I34" s="13" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="J34" s="13"/>
       <c r="K34" s="34" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
     </row>
     <row r="35" s="2" customFormat="1" ht="16.5" spans="1:11">
@@ -5710,26 +5766,26 @@
         <v>33</v>
       </c>
       <c r="B35" s="20" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="C35" s="20"/>
       <c r="D35" s="20"/>
       <c r="E35" s="22"/>
       <c r="F35" s="20" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="G35" s="13" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="H35" s="13" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="I35" s="13" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="J35" s="13"/>
       <c r="K35" s="34" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
     </row>
     <row r="36" s="2" customFormat="1" ht="16.5" spans="1:11">
@@ -5737,26 +5793,26 @@
         <v>34</v>
       </c>
       <c r="B36" s="20" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="C36" s="20"/>
       <c r="D36" s="20" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="E36" s="13"/>
       <c r="F36" s="20"/>
       <c r="G36" s="13" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="H36" s="13" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="I36" s="13" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="J36" s="13"/>
       <c r="K36" s="34" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
     </row>
     <row r="37" s="2" customFormat="1" ht="33" spans="1:11">
@@ -5764,26 +5820,26 @@
         <v>35</v>
       </c>
       <c r="B37" s="20" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="C37" s="20"/>
       <c r="D37" s="20"/>
       <c r="E37" s="13"/>
       <c r="F37" s="20" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="G37" s="13" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="H37" s="13" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="I37" s="13" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="J37" s="13"/>
       <c r="K37" s="34" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
     </row>
     <row r="38" s="2" customFormat="1" ht="16.5" spans="1:11">
@@ -5791,24 +5847,24 @@
         <v>36</v>
       </c>
       <c r="B38" s="20" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="C38" s="20"/>
       <c r="D38" s="20"/>
       <c r="E38" s="13"/>
       <c r="F38" s="20"/>
       <c r="G38" s="13" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="H38" s="13" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="I38" s="13" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="J38" s="13"/>
       <c r="K38" s="34" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
     </row>
     <row r="39" s="2" customFormat="1" ht="16.5" spans="1:11">
@@ -5816,24 +5872,24 @@
         <v>37</v>
       </c>
       <c r="B39" s="20" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="C39" s="20"/>
       <c r="D39" s="20"/>
       <c r="E39" s="23"/>
       <c r="F39" s="20"/>
       <c r="G39" s="13" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="H39" s="13" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="I39" s="13" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="J39" s="13"/>
       <c r="K39" s="34" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
     </row>
     <row r="40" s="2" customFormat="1" ht="16.5" spans="1:11">
@@ -5841,26 +5897,26 @@
         <v>38</v>
       </c>
       <c r="B40" s="20" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="C40" s="20"/>
       <c r="D40" s="20"/>
       <c r="E40" s="23"/>
       <c r="F40" s="20" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="G40" s="13" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="H40" s="13" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="I40" s="13" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="J40" s="13"/>
       <c r="K40" s="34" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
     </row>
     <row r="41" s="2" customFormat="1" ht="16.5" spans="1:11">
@@ -5868,28 +5924,28 @@
         <v>39</v>
       </c>
       <c r="B41" s="20" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="C41" s="20"/>
       <c r="D41" s="20" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="E41" s="13"/>
       <c r="F41" s="20" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="G41" s="13" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="H41" s="13" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="I41" s="13" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="J41" s="13"/>
       <c r="K41" s="34" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
     </row>
     <row r="42" s="2" customFormat="1" ht="16.5" spans="1:11">
@@ -5897,24 +5953,24 @@
         <v>40</v>
       </c>
       <c r="B42" s="20" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="C42" s="20"/>
       <c r="D42" s="20"/>
       <c r="E42" s="13"/>
       <c r="F42" s="20"/>
       <c r="G42" s="13" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="H42" s="13" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="I42" s="13" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="J42" s="35"/>
       <c r="K42" s="34" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
     </row>
     <row r="43" s="2" customFormat="1" ht="33" spans="1:11">
@@ -5922,26 +5978,26 @@
         <v>41</v>
       </c>
       <c r="B43" s="20" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="C43" s="20"/>
       <c r="D43" s="20"/>
       <c r="E43" s="13"/>
       <c r="F43" s="20" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="G43" s="13" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="H43" s="13" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="I43" s="13" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="J43" s="13"/>
       <c r="K43" s="34" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
     </row>
     <row r="44" s="2" customFormat="1" ht="16.5" spans="1:11">
@@ -5949,24 +6005,24 @@
         <v>42</v>
       </c>
       <c r="B44" s="20" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="C44" s="20"/>
       <c r="D44" s="20"/>
       <c r="E44" s="20"/>
       <c r="F44" s="20"/>
       <c r="G44" s="13" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="H44" s="13" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="I44" s="13" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="J44" s="13"/>
       <c r="K44" s="34" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
     </row>
     <row r="45" s="2" customFormat="1" ht="16.5" spans="1:11">
@@ -5974,24 +6030,24 @@
         <v>43</v>
       </c>
       <c r="B45" s="20" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="C45" s="20"/>
       <c r="D45" s="20"/>
       <c r="E45" s="20"/>
       <c r="F45" s="20"/>
       <c r="G45" s="13" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="H45" s="13" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="I45" s="13" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="J45" s="13"/>
       <c r="K45" s="34" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
     </row>
     <row r="46" s="2" customFormat="1" ht="16.5" spans="1:11">
@@ -5999,26 +6055,26 @@
         <v>44</v>
       </c>
       <c r="B46" s="20" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="C46" s="20"/>
       <c r="D46" s="20"/>
       <c r="E46" s="20"/>
       <c r="F46" s="20" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="G46" s="13" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="H46" s="13" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="I46" s="13" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="J46" s="13"/>
       <c r="K46" s="34" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
     </row>
     <row r="47" s="2" customFormat="1" ht="16.5" spans="1:11">
@@ -6026,24 +6082,24 @@
         <v>45</v>
       </c>
       <c r="B47" s="20" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="C47" s="20"/>
       <c r="D47" s="20"/>
       <c r="E47" s="20"/>
       <c r="F47" s="20"/>
       <c r="G47" s="13" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="H47" s="13" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="I47" s="13" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="J47" s="13"/>
       <c r="K47" s="34" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
     </row>
     <row r="48" ht="16.5" spans="1:18">
@@ -6051,24 +6107,24 @@
         <v>46</v>
       </c>
       <c r="B48" s="13" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="C48" s="24" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="D48" s="25"/>
       <c r="E48" s="24"/>
       <c r="F48" s="24"/>
       <c r="G48" s="24" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="H48" s="24" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="I48" s="24"/>
       <c r="J48" s="24"/>
       <c r="K48" s="36" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="L48" s="2"/>
       <c r="M48" s="2"/>
@@ -6083,22 +6139,22 @@
         <v>47</v>
       </c>
       <c r="B49" s="13" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="C49" s="24"/>
       <c r="D49" s="25"/>
       <c r="E49" s="24"/>
       <c r="F49" s="13"/>
       <c r="G49" s="24" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="H49" s="24" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="I49" s="24"/>
       <c r="J49" s="24"/>
       <c r="K49" s="33" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="L49" s="2"/>
       <c r="M49" s="2"/>
@@ -6113,26 +6169,26 @@
         <v>48</v>
       </c>
       <c r="B50" s="13" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="C50" s="24"/>
       <c r="D50" s="25"/>
       <c r="E50" s="24"/>
       <c r="F50" s="24" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="G50" s="24" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="H50" s="24" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="I50" s="24" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="J50" s="24"/>
       <c r="K50" s="36" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="L50" s="2"/>
       <c r="M50" s="2"/>
@@ -6147,26 +6203,26 @@
         <v>49</v>
       </c>
       <c r="B51" s="13" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="C51" s="24"/>
       <c r="D51" s="25"/>
       <c r="E51" s="24"/>
       <c r="F51" s="24" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="G51" s="24" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="H51" s="24" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="I51" s="24" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="J51" s="24"/>
       <c r="K51" s="33" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="L51" s="2"/>
       <c r="M51" s="2"/>
@@ -6181,26 +6237,26 @@
         <v>50</v>
       </c>
       <c r="B52" s="13" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="C52" s="24"/>
       <c r="D52" s="25"/>
       <c r="E52" s="24"/>
       <c r="F52" s="24" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="G52" s="24" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="H52" s="24" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="I52" s="24" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="J52" s="24"/>
       <c r="K52" s="33" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="L52" s="2"/>
       <c r="M52" s="2"/>
@@ -6215,26 +6271,26 @@
         <v>51</v>
       </c>
       <c r="B53" s="13" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="C53" s="24"/>
       <c r="D53" s="25"/>
       <c r="E53" s="13"/>
       <c r="F53" s="12" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="G53" s="12" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="H53" s="24" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="I53" s="24" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="J53" s="13"/>
       <c r="K53" s="33" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="L53" s="2"/>
       <c r="M53" s="2"/>
@@ -6249,26 +6305,26 @@
         <v>52</v>
       </c>
       <c r="B54" s="13" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="C54" s="24"/>
       <c r="D54" s="25"/>
       <c r="E54" s="13"/>
       <c r="F54" s="13" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="G54" s="24" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="H54" s="24" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="I54" s="24" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="J54" s="13"/>
       <c r="K54" s="33" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="L54" s="2"/>
       <c r="M54" s="2"/>
@@ -6283,26 +6339,26 @@
         <v>53</v>
       </c>
       <c r="B55" s="13" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="C55" s="24"/>
       <c r="D55" s="25"/>
       <c r="E55" s="13"/>
       <c r="F55" s="13" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="G55" s="24" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="H55" s="24" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="I55" s="24" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="J55" s="13"/>
       <c r="K55" s="33" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="L55" s="2"/>
       <c r="M55" s="2"/>
@@ -6317,26 +6373,26 @@
         <v>54</v>
       </c>
       <c r="B56" s="13" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="C56" s="24"/>
       <c r="D56" s="25"/>
       <c r="E56" s="13"/>
       <c r="F56" s="13" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="G56" s="24" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="H56" s="24" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="I56" s="24" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="J56" s="13"/>
       <c r="K56" s="33" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="L56" s="2"/>
       <c r="M56" s="2"/>
@@ -6351,26 +6407,26 @@
         <v>55</v>
       </c>
       <c r="B57" s="13" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="C57" s="24"/>
       <c r="D57" s="25"/>
       <c r="E57" s="13"/>
       <c r="F57" s="13" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="G57" s="24" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="H57" s="24" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="I57" s="24" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="J57" s="13"/>
       <c r="K57" s="33" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="L57" s="2"/>
       <c r="M57" s="2"/>
@@ -6385,26 +6441,26 @@
         <v>56</v>
       </c>
       <c r="B58" s="13" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="C58" s="24"/>
       <c r="D58" s="26"/>
       <c r="E58" s="13"/>
       <c r="F58" s="13" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="G58" s="24" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="H58" s="24" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="I58" s="24" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="J58" s="13"/>
       <c r="K58" s="33" t="s">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="L58" s="2"/>
       <c r="M58" s="2"/>
@@ -6419,26 +6475,26 @@
         <v>57</v>
       </c>
       <c r="B59" s="13" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="C59" s="27"/>
       <c r="D59" s="27"/>
       <c r="E59" s="27"/>
       <c r="F59" s="13" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="G59" s="24" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="H59" s="24" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="I59" s="24" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="J59" s="13"/>
       <c r="K59" s="33" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
     </row>
     <row r="60" ht="16.5" spans="1:18">
@@ -6446,24 +6502,24 @@
         <v>58</v>
       </c>
       <c r="B60" s="13" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="C60" s="24"/>
       <c r="D60" s="26"/>
       <c r="E60" s="13"/>
       <c r="F60" s="13"/>
       <c r="G60" s="24" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="H60" s="24" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="I60" s="24" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="J60" s="13"/>
       <c r="K60" s="33" t="s">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="L60" s="2"/>
       <c r="M60" s="2"/>
@@ -6478,28 +6534,28 @@
         <v>59</v>
       </c>
       <c r="B61" s="13" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="C61" s="13" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="D61" s="28"/>
       <c r="E61" s="13"/>
       <c r="F61" s="24" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="G61" s="24" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="H61" s="24" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="I61" s="24" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="J61" s="13"/>
       <c r="K61" s="33" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="L61" s="2"/>
       <c r="M61" s="2"/>
@@ -6514,26 +6570,26 @@
         <v>60</v>
       </c>
       <c r="B62" s="13" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="C62" s="13"/>
       <c r="D62" s="28"/>
       <c r="E62" s="13"/>
       <c r="F62" s="24" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="G62" s="24" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="H62" s="24" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="I62" s="24" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="J62" s="13"/>
       <c r="K62" s="33" t="s">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="L62" s="2"/>
       <c r="M62" s="2"/>
@@ -6548,26 +6604,26 @@
         <v>61</v>
       </c>
       <c r="B63" s="13" t="s">
-        <v>229</v>
+        <v>233</v>
       </c>
       <c r="C63" s="13"/>
       <c r="D63" s="28"/>
       <c r="E63" s="13"/>
       <c r="F63" s="24" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="G63" s="24" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="H63" s="24" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="I63" s="24" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="J63" s="13"/>
       <c r="K63" s="33" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="L63" s="2"/>
       <c r="M63" s="2"/>
@@ -6582,26 +6638,26 @@
         <v>62</v>
       </c>
       <c r="B64" s="13" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="C64" s="13"/>
       <c r="D64" s="28"/>
       <c r="E64" s="13"/>
       <c r="F64" s="12" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="G64" s="12" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="H64" s="24" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="I64" s="24" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="J64" s="13"/>
       <c r="K64" s="33" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="L64" s="2"/>
       <c r="M64" s="2"/>
@@ -6616,26 +6672,26 @@
         <v>63</v>
       </c>
       <c r="B65" s="13" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="C65" s="13"/>
       <c r="D65" s="28"/>
       <c r="E65" s="13"/>
       <c r="F65" s="13" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="G65" s="24" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="H65" s="24" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="I65" s="24" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="J65" s="13"/>
       <c r="K65" s="33" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="L65" s="2"/>
       <c r="M65" s="2"/>
@@ -6650,26 +6706,26 @@
         <v>64</v>
       </c>
       <c r="B66" s="13" t="s">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="C66" s="13"/>
       <c r="D66" s="28"/>
       <c r="E66" s="13"/>
       <c r="F66" s="13" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="G66" s="24" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="H66" s="24" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="I66" s="24" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="J66" s="13"/>
       <c r="K66" s="33" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="L66" s="2"/>
       <c r="M66" s="2"/>
@@ -6684,26 +6740,26 @@
         <v>65</v>
       </c>
       <c r="B67" s="13" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="C67" s="13"/>
       <c r="D67" s="28"/>
       <c r="E67" s="13"/>
       <c r="F67" s="13" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="G67" s="24" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="H67" s="24" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="I67" s="24" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="J67" s="13"/>
       <c r="K67" s="33" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="L67" s="2"/>
       <c r="M67" s="2"/>
@@ -6718,26 +6774,26 @@
         <v>66</v>
       </c>
       <c r="B68" s="13" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="C68" s="13"/>
       <c r="D68" s="28"/>
       <c r="E68" s="13"/>
       <c r="F68" s="13" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="G68" s="24" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="H68" s="24" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="I68" s="24" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="J68" s="13"/>
       <c r="K68" s="33" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="L68" s="2"/>
       <c r="M68" s="2"/>
@@ -6752,26 +6808,26 @@
         <v>67</v>
       </c>
       <c r="B69" s="13" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="C69" s="13"/>
       <c r="D69" s="13"/>
       <c r="E69" s="13"/>
       <c r="F69" s="13" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="G69" s="24" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="H69" s="24" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="I69" s="24" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="J69" s="13"/>
       <c r="K69" s="33" t="s">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="L69" s="2"/>
       <c r="M69" s="2"/>
@@ -6786,26 +6842,26 @@
         <v>68</v>
       </c>
       <c r="B70" s="13" t="s">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="C70" s="27"/>
       <c r="D70" s="27"/>
       <c r="E70" s="27"/>
       <c r="F70" s="13" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="G70" s="24" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="H70" s="24" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="I70" s="24" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="J70" s="13"/>
       <c r="K70" s="35" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
     </row>
     <row r="71" ht="16.5" spans="1:18">
@@ -6813,24 +6869,24 @@
         <v>69</v>
       </c>
       <c r="B71" s="13" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="C71" s="13"/>
       <c r="D71" s="13"/>
       <c r="E71" s="13"/>
       <c r="F71" s="13"/>
       <c r="G71" s="24" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="H71" s="24" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="I71" s="24" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="J71" s="13"/>
       <c r="K71" s="41" t="s">
-        <v>239</v>
+        <v>243</v>
       </c>
       <c r="L71" s="2"/>
       <c r="M71" s="2"/>
@@ -6845,28 +6901,28 @@
         <v>70</v>
       </c>
       <c r="B72" s="13" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="C72" s="8" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="D72" s="13" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="E72" s="8"/>
       <c r="F72" s="8" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="G72" s="37" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="H72" s="37"/>
       <c r="I72" s="37" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="J72" s="37"/>
       <c r="K72" s="42" t="s">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="L72" s="43"/>
       <c r="M72" s="43"/>
@@ -6881,26 +6937,26 @@
         <v>71</v>
       </c>
       <c r="B73" s="13" t="s">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="C73" s="8"/>
       <c r="D73" s="13"/>
       <c r="E73" s="12"/>
       <c r="F73" s="13" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="G73" s="13" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="H73" s="13" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="I73" s="13" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="J73" s="13"/>
       <c r="K73" s="36" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="L73" s="44"/>
       <c r="M73" s="44"/>
@@ -6915,26 +6971,26 @@
         <v>72</v>
       </c>
       <c r="B74" s="13" t="s">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="C74" s="8"/>
       <c r="D74" s="13"/>
       <c r="E74" s="12"/>
       <c r="F74" s="13" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="G74" s="13" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="H74" s="13" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="I74" s="13" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="J74" s="13"/>
       <c r="K74" s="36" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
       <c r="L74" s="44"/>
       <c r="M74" s="44"/>
@@ -6949,22 +7005,22 @@
         <v>73</v>
       </c>
       <c r="B75" s="13" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="C75" s="8"/>
       <c r="D75" s="13"/>
       <c r="E75" s="12"/>
       <c r="F75" s="13"/>
       <c r="G75" s="13" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="H75" s="13" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="I75" s="13"/>
       <c r="J75" s="13"/>
       <c r="K75" s="33" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="L75" s="44"/>
       <c r="M75" s="44"/>
@@ -6979,7 +7035,7 @@
         <v>74</v>
       </c>
       <c r="B76" s="13" t="s">
-        <v>250</v>
+        <v>254</v>
       </c>
       <c r="C76" s="8"/>
       <c r="D76" s="13"/>
@@ -6990,7 +7046,7 @@
       <c r="I76" s="13"/>
       <c r="J76" s="13"/>
       <c r="K76" s="33" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="L76" s="44"/>
       <c r="M76" s="44"/>
@@ -7005,26 +7061,26 @@
         <v>75</v>
       </c>
       <c r="B77" s="13" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="C77" s="38"/>
       <c r="D77" s="13" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="E77" s="12"/>
       <c r="F77" s="13" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="G77" s="13" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="H77" s="13"/>
       <c r="I77" s="13" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="J77" s="13"/>
       <c r="K77" s="33" t="s">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="L77" s="44"/>
       <c r="M77" s="44"/>
@@ -7039,26 +7095,26 @@
         <v>76</v>
       </c>
       <c r="B78" s="13" t="s">
-        <v>255</v>
+        <v>259</v>
       </c>
       <c r="C78" s="38"/>
       <c r="D78" s="13"/>
       <c r="E78" s="12"/>
       <c r="F78" s="24" t="s">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="G78" s="13" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="H78" s="13" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="I78" s="13" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="J78" s="13"/>
       <c r="K78" s="36" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="L78" s="44"/>
       <c r="M78" s="44"/>
@@ -7073,24 +7129,24 @@
         <v>77</v>
       </c>
       <c r="B79" s="13" t="s">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="C79" s="38"/>
       <c r="D79" s="13"/>
       <c r="E79" s="12"/>
       <c r="F79" s="12" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="G79" s="12" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="H79" s="12"/>
       <c r="I79" s="12" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="J79" s="12"/>
       <c r="K79" s="33" t="s">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="L79" s="44"/>
       <c r="M79" s="44"/>
@@ -7105,26 +7161,26 @@
         <v>78</v>
       </c>
       <c r="B80" s="13" t="s">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="C80" s="38"/>
       <c r="D80" s="13"/>
       <c r="E80" s="12"/>
       <c r="F80" s="13" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="G80" s="13" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="H80" s="13" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="I80" s="13" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="J80" s="13"/>
       <c r="K80" s="36" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="L80" s="44"/>
       <c r="M80" s="44"/>
@@ -7139,22 +7195,22 @@
         <v>79</v>
       </c>
       <c r="B81" s="13" t="s">
-        <v>262</v>
+        <v>266</v>
       </c>
       <c r="C81" s="38"/>
       <c r="D81" s="13"/>
       <c r="E81" s="12"/>
       <c r="F81" s="13"/>
       <c r="G81" s="13" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="H81" s="13" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="I81" s="13"/>
       <c r="J81" s="13"/>
       <c r="K81" s="33" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="L81" s="44"/>
       <c r="M81" s="44"/>
@@ -7169,22 +7225,22 @@
         <v>80</v>
       </c>
       <c r="B82" s="13" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="C82" s="38"/>
       <c r="D82" s="13"/>
       <c r="E82" s="12"/>
       <c r="F82" s="13"/>
       <c r="G82" s="13" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="H82" s="13" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="I82" s="13"/>
       <c r="J82" s="13"/>
       <c r="K82" s="33" t="s">
-        <v>265</v>
+        <v>269</v>
       </c>
       <c r="L82" s="44"/>
       <c r="M82" s="44"/>
@@ -7199,24 +7255,24 @@
         <v>81</v>
       </c>
       <c r="B83" s="13" t="s">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="C83" s="38"/>
       <c r="D83" s="13"/>
       <c r="E83" s="12"/>
       <c r="F83" s="13" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="G83" s="13" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="H83" s="13"/>
       <c r="I83" s="13" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="J83" s="13"/>
       <c r="K83" s="36" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="L83" s="44"/>
       <c r="M83" s="44"/>
@@ -7231,20 +7287,20 @@
         <v>82</v>
       </c>
       <c r="B84" s="13" t="s">
-        <v>268</v>
+        <v>272</v>
       </c>
       <c r="C84" s="38"/>
       <c r="D84" s="13"/>
       <c r="E84" s="13"/>
       <c r="F84" s="13"/>
       <c r="G84" s="13" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="H84" s="13"/>
       <c r="I84" s="13"/>
       <c r="J84" s="13"/>
       <c r="K84" s="33" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="L84" s="44"/>
       <c r="M84" s="44"/>
@@ -7259,22 +7315,22 @@
         <v>83</v>
       </c>
       <c r="B85" s="13" t="s">
-        <v>270</v>
+        <v>274</v>
       </c>
       <c r="C85" s="38"/>
       <c r="D85" s="13"/>
       <c r="E85" s="13"/>
       <c r="F85" s="13"/>
       <c r="G85" s="13" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="H85" s="13" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="I85" s="13"/>
       <c r="J85" s="13"/>
       <c r="K85" s="33" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
       <c r="L85" s="44"/>
       <c r="M85" s="44"/>
@@ -7289,26 +7345,26 @@
         <v>84</v>
       </c>
       <c r="B86" s="13" t="s">
-        <v>272</v>
+        <v>276</v>
       </c>
       <c r="C86" s="38"/>
       <c r="D86" s="13" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="E86" s="13"/>
       <c r="F86" s="12" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="G86" s="12" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="H86" s="12"/>
       <c r="I86" s="12" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="J86" s="13"/>
       <c r="K86" s="33" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
       <c r="L86" s="2"/>
       <c r="M86" s="2"/>
@@ -7323,24 +7379,24 @@
         <v>85</v>
       </c>
       <c r="B87" s="13" t="s">
-        <v>275</v>
+        <v>279</v>
       </c>
       <c r="C87" s="38"/>
       <c r="D87" s="13"/>
       <c r="E87" s="13"/>
       <c r="F87" s="12" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="G87" s="12" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="H87" s="12"/>
       <c r="I87" s="12" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="J87" s="13"/>
       <c r="K87" s="33" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="L87" s="2"/>
       <c r="M87" s="2"/>
@@ -7355,24 +7411,24 @@
         <v>86</v>
       </c>
       <c r="B88" s="13" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
       <c r="C88" s="38"/>
       <c r="D88" s="13"/>
       <c r="E88" s="13"/>
       <c r="F88" s="12" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="G88" s="12" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="H88" s="12"/>
       <c r="I88" s="12" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="J88" s="13"/>
       <c r="K88" s="45" t="s">
-        <v>278</v>
+        <v>282</v>
       </c>
       <c r="L88" s="2"/>
       <c r="M88" s="2"/>
@@ -7387,20 +7443,20 @@
         <v>87</v>
       </c>
       <c r="B89" s="13" t="s">
-        <v>279</v>
+        <v>283</v>
       </c>
       <c r="C89" s="38"/>
       <c r="D89" s="13"/>
       <c r="E89" s="13"/>
       <c r="F89" s="12"/>
       <c r="G89" s="12" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="H89" s="12"/>
       <c r="I89" s="12"/>
       <c r="J89" s="13"/>
       <c r="K89" s="33" t="s">
-        <v>280</v>
+        <v>284</v>
       </c>
       <c r="L89" s="2"/>
       <c r="M89" s="2"/>
@@ -7415,20 +7471,20 @@
         <v>88</v>
       </c>
       <c r="B90" s="13" t="s">
-        <v>281</v>
+        <v>285</v>
       </c>
       <c r="C90" s="38"/>
       <c r="D90" s="13"/>
       <c r="E90" s="13"/>
       <c r="F90" s="12"/>
       <c r="G90" s="12" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="H90" s="12"/>
       <c r="I90" s="12"/>
       <c r="J90" s="13"/>
       <c r="K90" s="33" t="s">
-        <v>282</v>
+        <v>286</v>
       </c>
       <c r="L90" s="2"/>
       <c r="M90" s="2"/>
@@ -7443,26 +7499,26 @@
         <v>89</v>
       </c>
       <c r="B91" s="13" t="s">
-        <v>283</v>
+        <v>287</v>
       </c>
       <c r="C91" s="38"/>
       <c r="D91" s="13" t="s">
-        <v>284</v>
+        <v>288</v>
       </c>
       <c r="E91" s="13"/>
       <c r="F91" s="13" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="G91" s="13" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="H91" s="13"/>
       <c r="I91" s="13" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="J91" s="13"/>
       <c r="K91" s="33" t="s">
-        <v>285</v>
+        <v>289</v>
       </c>
       <c r="L91" s="2"/>
       <c r="M91" s="2"/>
@@ -7477,24 +7533,24 @@
         <v>90</v>
       </c>
       <c r="B92" s="13" t="s">
-        <v>286</v>
+        <v>290</v>
       </c>
       <c r="C92" s="38"/>
       <c r="D92" s="13"/>
       <c r="E92" s="13"/>
       <c r="F92" s="13" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="G92" s="13" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="H92" s="13"/>
       <c r="I92" s="13" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="J92" s="13"/>
       <c r="K92" s="33" t="s">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="L92" s="2"/>
       <c r="M92" s="2"/>
@@ -7509,24 +7565,24 @@
         <v>91</v>
       </c>
       <c r="B93" s="13" t="s">
-        <v>288</v>
+        <v>292</v>
       </c>
       <c r="C93" s="38"/>
       <c r="D93" s="13"/>
       <c r="E93" s="13"/>
       <c r="F93" s="13" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="G93" s="13" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="H93" s="13"/>
       <c r="I93" s="13" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="J93" s="13"/>
       <c r="K93" s="33" t="s">
-        <v>289</v>
+        <v>293</v>
       </c>
       <c r="L93" s="2"/>
       <c r="M93" s="2"/>
@@ -7541,24 +7597,24 @@
         <v>92</v>
       </c>
       <c r="B94" s="13" t="s">
-        <v>290</v>
+        <v>294</v>
       </c>
       <c r="C94" s="38"/>
       <c r="D94" s="13"/>
       <c r="E94" s="13"/>
       <c r="F94" s="13" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="G94" s="13" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="H94" s="13"/>
       <c r="I94" s="13" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="J94" s="13"/>
       <c r="K94" s="33" t="s">
-        <v>291</v>
+        <v>295</v>
       </c>
       <c r="L94" s="2"/>
       <c r="M94" s="2"/>
@@ -7573,26 +7629,26 @@
         <v>93</v>
       </c>
       <c r="B95" s="13" t="s">
-        <v>292</v>
+        <v>296</v>
       </c>
       <c r="C95" s="38"/>
       <c r="D95" s="13"/>
       <c r="E95" s="13"/>
       <c r="F95" s="13" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="G95" s="13" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="H95" s="13" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="I95" s="13" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="J95" s="13"/>
       <c r="K95" s="36" t="s">
-        <v>293</v>
+        <v>297</v>
       </c>
       <c r="L95" s="2"/>
       <c r="M95" s="2"/>
@@ -7607,22 +7663,22 @@
         <v>94</v>
       </c>
       <c r="B96" s="13" t="s">
-        <v>294</v>
+        <v>298</v>
       </c>
       <c r="C96" s="38"/>
       <c r="D96" s="13"/>
       <c r="E96" s="13"/>
       <c r="F96" s="13"/>
       <c r="G96" s="13" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="H96" s="13" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="I96" s="13"/>
       <c r="J96" s="13"/>
       <c r="K96" s="33" t="s">
-        <v>295</v>
+        <v>299</v>
       </c>
       <c r="L96" s="2"/>
       <c r="M96" s="2"/>
@@ -7637,22 +7693,22 @@
         <v>95</v>
       </c>
       <c r="B97" s="13" t="s">
-        <v>296</v>
+        <v>300</v>
       </c>
       <c r="C97" s="27"/>
       <c r="D97" s="27"/>
       <c r="E97" s="27"/>
       <c r="F97" s="13"/>
       <c r="G97" s="13" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="H97" s="13" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="I97" s="13"/>
       <c r="J97" s="13"/>
       <c r="K97" s="33" t="s">
-        <v>297</v>
+        <v>301</v>
       </c>
     </row>
     <row r="98" ht="16.5" spans="1:11">
@@ -7660,22 +7716,22 @@
         <v>96</v>
       </c>
       <c r="B98" s="13" t="s">
-        <v>298</v>
+        <v>302</v>
       </c>
       <c r="C98" s="27"/>
       <c r="D98" s="27"/>
       <c r="E98" s="27"/>
       <c r="F98" s="13"/>
       <c r="G98" s="13" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="H98" s="13" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="I98" s="13"/>
       <c r="J98" s="13"/>
       <c r="K98" s="33" t="s">
-        <v>299</v>
+        <v>303</v>
       </c>
     </row>
     <row r="99" ht="16.5" spans="1:11">
@@ -7683,20 +7739,20 @@
         <v>97</v>
       </c>
       <c r="B99" s="13" t="s">
-        <v>300</v>
+        <v>304</v>
       </c>
       <c r="C99" s="27"/>
       <c r="D99" s="27"/>
       <c r="E99" s="27"/>
       <c r="F99" s="17"/>
       <c r="G99" s="13" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="H99" s="13"/>
       <c r="I99" s="17"/>
       <c r="J99" s="17"/>
       <c r="K99" s="41" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
     </row>
     <row r="100" ht="16.5" spans="1:18">
@@ -7704,22 +7760,22 @@
         <v>98</v>
       </c>
       <c r="B100" s="13" t="s">
-        <v>301</v>
+        <v>305</v>
       </c>
       <c r="C100" s="38"/>
       <c r="D100" s="13"/>
       <c r="E100" s="13"/>
       <c r="F100" s="17"/>
       <c r="G100" s="13" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="H100" s="13" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="I100" s="17"/>
       <c r="J100" s="17"/>
       <c r="K100" s="33" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="L100" s="2"/>
       <c r="M100" s="2"/>
@@ -7734,28 +7790,28 @@
         <v>99</v>
       </c>
       <c r="B101" s="17" t="s">
-        <v>302</v>
+        <v>306</v>
       </c>
       <c r="C101" s="39" t="s">
-        <v>303</v>
+        <v>307</v>
       </c>
       <c r="D101" s="17" t="s">
-        <v>304</v>
+        <v>308</v>
       </c>
       <c r="E101" s="17"/>
       <c r="F101" s="17"/>
       <c r="G101" s="17" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="H101" s="17" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="I101" s="17" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="J101" s="17"/>
       <c r="K101" s="41" t="s">
-        <v>305</v>
+        <v>309</v>
       </c>
       <c r="L101" s="2"/>
       <c r="M101" s="2"/>
@@ -7770,26 +7826,26 @@
         <v>100</v>
       </c>
       <c r="B102" s="17" t="s">
-        <v>306</v>
+        <v>310</v>
       </c>
       <c r="C102" s="39"/>
       <c r="D102" s="17"/>
       <c r="E102" s="17"/>
       <c r="F102" s="17" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="G102" s="17" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="H102" s="17" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="I102" s="17" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="J102" s="17"/>
       <c r="K102" s="41" t="s">
-        <v>307</v>
+        <v>311</v>
       </c>
       <c r="L102" s="2"/>
       <c r="M102" s="2"/>
@@ -7804,24 +7860,24 @@
         <v>101</v>
       </c>
       <c r="B103" s="17" t="s">
-        <v>308</v>
+        <v>312</v>
       </c>
       <c r="C103" s="39"/>
       <c r="D103" s="17"/>
       <c r="E103" s="17"/>
       <c r="F103" s="17"/>
       <c r="G103" s="17" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="H103" s="17" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="I103" s="17" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="J103" s="17"/>
       <c r="K103" s="41" t="s">
-        <v>309</v>
+        <v>313</v>
       </c>
       <c r="L103" s="2"/>
       <c r="M103" s="2"/>
@@ -7836,24 +7892,24 @@
         <v>102</v>
       </c>
       <c r="B104" s="17" t="s">
-        <v>310</v>
+        <v>314</v>
       </c>
       <c r="C104" s="39"/>
       <c r="D104" s="17" t="s">
-        <v>311</v>
+        <v>315</v>
       </c>
       <c r="E104" s="17"/>
       <c r="F104" s="17" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="G104" s="17" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="H104" s="17"/>
       <c r="I104" s="17"/>
       <c r="J104" s="17"/>
       <c r="K104" s="41" t="s">
-        <v>312</v>
+        <v>316</v>
       </c>
       <c r="L104" s="2"/>
       <c r="M104" s="2"/>
@@ -7866,22 +7922,22 @@
     <row r="105" ht="16.5" spans="1:18">
       <c r="A105" s="7"/>
       <c r="B105" s="17" t="s">
-        <v>313</v>
+        <v>317</v>
       </c>
       <c r="C105" s="39"/>
       <c r="D105" s="17"/>
       <c r="E105" s="17"/>
       <c r="F105" s="17" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="G105" s="17" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="H105" s="17"/>
       <c r="I105" s="17"/>
       <c r="J105" s="17"/>
       <c r="K105" s="41" t="s">
-        <v>312</v>
+        <v>316</v>
       </c>
       <c r="L105" s="2"/>
       <c r="M105" s="2"/>
@@ -7894,22 +7950,22 @@
     <row r="106" ht="16.5" spans="1:18">
       <c r="A106" s="7"/>
       <c r="B106" s="17" t="s">
-        <v>314</v>
+        <v>318</v>
       </c>
       <c r="C106" s="39"/>
       <c r="D106" s="17"/>
       <c r="E106" s="17"/>
       <c r="F106" s="17" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="G106" s="17" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="H106" s="17"/>
       <c r="I106" s="17"/>
       <c r="J106" s="17"/>
       <c r="K106" s="41" t="s">
-        <v>315</v>
+        <v>319</v>
       </c>
       <c r="L106" s="2"/>
       <c r="M106" s="2"/>
@@ -7922,26 +7978,26 @@
     <row r="107" ht="16.5" spans="1:18">
       <c r="A107" s="7"/>
       <c r="B107" s="17" t="s">
-        <v>316</v>
+        <v>320</v>
       </c>
       <c r="C107" s="39"/>
       <c r="D107" s="17"/>
       <c r="E107" s="17"/>
       <c r="F107" s="17" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="G107" s="17" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="H107" s="17" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="I107" s="17" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="J107" s="17"/>
       <c r="K107" s="41" t="s">
-        <v>317</v>
+        <v>321</v>
       </c>
       <c r="L107" s="2"/>
       <c r="M107" s="2"/>
@@ -7954,26 +8010,26 @@
     <row r="108" ht="16.5" spans="1:18">
       <c r="A108" s="7"/>
       <c r="B108" s="17" t="s">
-        <v>318</v>
+        <v>322</v>
       </c>
       <c r="C108" s="39"/>
       <c r="D108" s="17"/>
       <c r="E108" s="17"/>
       <c r="F108" s="17" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="G108" s="17" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="H108" s="17" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="I108" s="17" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="J108" s="17"/>
       <c r="K108" s="41" t="s">
-        <v>319</v>
+        <v>323</v>
       </c>
       <c r="L108" s="2"/>
       <c r="M108" s="2"/>
@@ -7988,22 +8044,22 @@
         <v>103</v>
       </c>
       <c r="B109" s="17" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="C109" s="39"/>
       <c r="D109" s="17"/>
       <c r="E109" s="17"/>
       <c r="F109" s="17" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="G109" s="17" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="H109" s="17"/>
       <c r="I109" s="17"/>
       <c r="J109" s="17"/>
       <c r="K109" s="41" t="s">
-        <v>321</v>
+        <v>325</v>
       </c>
       <c r="L109" s="2"/>
       <c r="M109" s="2"/>
@@ -8018,26 +8074,26 @@
         <v>104</v>
       </c>
       <c r="B110" s="17" t="s">
-        <v>322</v>
+        <v>326</v>
       </c>
       <c r="C110" s="39"/>
       <c r="D110" s="17"/>
       <c r="E110" s="17"/>
       <c r="F110" s="17" t="s">
-        <v>323</v>
+        <v>327</v>
       </c>
       <c r="G110" s="17" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="H110" s="17" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="I110" s="17" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="J110" s="17"/>
       <c r="K110" s="41" t="s">
-        <v>324</v>
+        <v>328</v>
       </c>
       <c r="L110" s="2"/>
       <c r="M110" s="2"/>
@@ -8052,26 +8108,26 @@
         <v>105</v>
       </c>
       <c r="B111" s="17" t="s">
-        <v>325</v>
+        <v>329</v>
       </c>
       <c r="C111" s="39"/>
       <c r="D111" s="17"/>
       <c r="E111" s="17"/>
       <c r="F111" s="17" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="G111" s="17" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="H111" s="17" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="I111" s="17" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="J111" s="17"/>
       <c r="K111" s="41" t="s">
-        <v>326</v>
+        <v>330</v>
       </c>
       <c r="L111" s="2"/>
       <c r="M111" s="2"/>
@@ -8086,20 +8142,20 @@
         <v>106</v>
       </c>
       <c r="B112" s="17" t="s">
-        <v>327</v>
+        <v>331</v>
       </c>
       <c r="C112" s="39"/>
       <c r="D112" s="17"/>
       <c r="E112" s="17"/>
       <c r="F112" s="17"/>
       <c r="G112" s="17" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="H112" s="17"/>
       <c r="I112" s="17"/>
       <c r="J112" s="17"/>
       <c r="K112" s="41" t="s">
-        <v>328</v>
+        <v>332</v>
       </c>
       <c r="L112" s="2"/>
       <c r="M112" s="2"/>
@@ -8114,7 +8170,7 @@
         <v>107</v>
       </c>
       <c r="B113" s="17" t="s">
-        <v>329</v>
+        <v>333</v>
       </c>
       <c r="C113" s="39"/>
       <c r="D113" s="17"/>
@@ -8125,7 +8181,7 @@
       <c r="I113" s="17"/>
       <c r="J113" s="17"/>
       <c r="K113" s="41" t="s">
-        <v>330</v>
+        <v>334</v>
       </c>
       <c r="L113" s="2"/>
       <c r="M113" s="2"/>
@@ -8138,24 +8194,24 @@
     <row r="114" ht="16.5" spans="1:18">
       <c r="A114" s="7"/>
       <c r="B114" s="17" t="s">
-        <v>331</v>
+        <v>335</v>
       </c>
       <c r="C114" s="12"/>
       <c r="D114" s="39" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="E114" s="17" t="s">
-        <v>333</v>
+        <v>337</v>
       </c>
       <c r="F114" s="17" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="G114" s="17"/>
       <c r="H114" s="17"/>
       <c r="I114" s="17"/>
       <c r="J114" s="17"/>
       <c r="K114" s="41" t="s">
-        <v>334</v>
+        <v>338</v>
       </c>
       <c r="L114" s="2"/>
       <c r="M114" s="2"/>
@@ -8170,26 +8226,26 @@
         <v>108</v>
       </c>
       <c r="B115" s="17" t="s">
-        <v>335</v>
+        <v>339</v>
       </c>
       <c r="C115" s="12"/>
       <c r="D115" s="39"/>
       <c r="E115" s="17"/>
       <c r="F115" s="17" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="G115" s="17" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="H115" s="17" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="I115" s="17" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="J115" s="17"/>
       <c r="K115" s="41" t="s">
-        <v>336</v>
+        <v>340</v>
       </c>
       <c r="L115" s="2"/>
       <c r="M115" s="2"/>
@@ -8204,26 +8260,26 @@
         <v>109</v>
       </c>
       <c r="B116" s="17" t="s">
-        <v>337</v>
+        <v>341</v>
       </c>
       <c r="C116" s="12"/>
       <c r="D116" s="39"/>
       <c r="E116" s="17"/>
       <c r="F116" s="17" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="G116" s="17" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="H116" s="17" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="I116" s="17" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="J116" s="17"/>
       <c r="K116" s="41" t="s">
-        <v>338</v>
+        <v>342</v>
       </c>
       <c r="L116" s="2"/>
       <c r="M116" s="2"/>
@@ -8238,26 +8294,26 @@
         <v>110</v>
       </c>
       <c r="B117" s="17" t="s">
-        <v>339</v>
+        <v>343</v>
       </c>
       <c r="C117" s="12"/>
       <c r="D117" s="39"/>
       <c r="E117" s="17"/>
       <c r="F117" s="17" t="s">
-        <v>340</v>
+        <v>344</v>
       </c>
       <c r="G117" s="17" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="H117" s="17" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="I117" s="17" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="J117" s="17"/>
       <c r="K117" s="35" t="s">
-        <v>341</v>
+        <v>345</v>
       </c>
       <c r="L117" s="2"/>
       <c r="M117" s="2"/>
@@ -8272,26 +8328,26 @@
         <v>111</v>
       </c>
       <c r="B118" s="17" t="s">
-        <v>342</v>
+        <v>346</v>
       </c>
       <c r="C118" s="12"/>
       <c r="D118" s="39"/>
       <c r="E118" s="17"/>
       <c r="F118" s="17" t="s">
-        <v>340</v>
+        <v>344</v>
       </c>
       <c r="G118" s="17" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="H118" s="17" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="I118" s="17" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="J118" s="17"/>
       <c r="K118" s="35" t="s">
-        <v>341</v>
+        <v>345</v>
       </c>
       <c r="L118" s="2"/>
       <c r="M118" s="2"/>
@@ -8304,26 +8360,26 @@
     <row r="119" ht="16.5" spans="1:18">
       <c r="A119" s="7"/>
       <c r="B119" s="17" t="s">
-        <v>343</v>
+        <v>347</v>
       </c>
       <c r="C119" s="12"/>
       <c r="D119" s="39"/>
       <c r="E119" s="17"/>
       <c r="F119" s="17" t="s">
-        <v>340</v>
+        <v>344</v>
       </c>
       <c r="G119" s="17" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="H119" s="17" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="I119" s="17" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="J119" s="17"/>
       <c r="K119" s="35" t="s">
-        <v>341</v>
+        <v>345</v>
       </c>
       <c r="L119" s="2"/>
       <c r="M119" s="2"/>
@@ -8338,26 +8394,26 @@
         <v>112</v>
       </c>
       <c r="B120" s="17" t="s">
-        <v>344</v>
+        <v>348</v>
       </c>
       <c r="C120" s="40"/>
       <c r="D120" s="39"/>
       <c r="E120" s="17"/>
       <c r="F120" s="17" t="s">
-        <v>340</v>
+        <v>344</v>
       </c>
       <c r="G120" s="17" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="H120" s="17" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="I120" s="17" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="J120" s="17"/>
       <c r="K120" s="35" t="s">
-        <v>341</v>
+        <v>345</v>
       </c>
     </row>
     <row r="121" ht="16.5" spans="1:11">
@@ -8365,26 +8421,26 @@
         <v>113</v>
       </c>
       <c r="B121" s="17" t="s">
-        <v>345</v>
+        <v>349</v>
       </c>
       <c r="C121" s="40"/>
       <c r="D121" s="39"/>
       <c r="E121" s="17"/>
       <c r="F121" s="17" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="G121" s="17" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="H121" s="17" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="I121" s="17" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="J121" s="17"/>
       <c r="K121" s="41" t="s">
-        <v>346</v>
+        <v>350</v>
       </c>
     </row>
     <row r="122" ht="16.5" spans="1:18">
@@ -8392,20 +8448,20 @@
         <v>114</v>
       </c>
       <c r="B122" s="17" t="s">
-        <v>347</v>
+        <v>351</v>
       </c>
       <c r="C122" s="12"/>
       <c r="D122" s="39"/>
       <c r="E122" s="17"/>
       <c r="F122" s="17"/>
       <c r="G122" s="17" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="H122" s="17"/>
       <c r="I122" s="17"/>
       <c r="J122" s="17"/>
       <c r="K122" s="41" t="s">
-        <v>330</v>
+        <v>334</v>
       </c>
       <c r="L122" s="2"/>
       <c r="M122" s="2"/>
@@ -8420,28 +8476,28 @@
         <v>115</v>
       </c>
       <c r="B123" s="17" t="s">
-        <v>348</v>
+        <v>352</v>
       </c>
       <c r="C123" s="12"/>
       <c r="D123" s="39"/>
       <c r="E123" s="17" t="s">
-        <v>349</v>
+        <v>353</v>
       </c>
       <c r="F123" s="17" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="G123" s="17" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="H123" s="17" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="I123" s="17" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="J123" s="46"/>
       <c r="K123" s="41" t="s">
-        <v>350</v>
+        <v>354</v>
       </c>
       <c r="L123" s="2"/>
       <c r="M123" s="2"/>
@@ -8456,26 +8512,26 @@
         <v>116</v>
       </c>
       <c r="B124" s="17" t="s">
-        <v>351</v>
+        <v>355</v>
       </c>
       <c r="C124" s="12"/>
       <c r="D124" s="39"/>
       <c r="E124" s="17"/>
       <c r="F124" s="17" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="G124" s="17" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="H124" s="17" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="I124" s="17" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="J124" s="17"/>
       <c r="K124" s="41" t="s">
-        <v>352</v>
+        <v>356</v>
       </c>
       <c r="L124" s="2"/>
       <c r="M124" s="2"/>
@@ -8490,22 +8546,22 @@
         <v>117</v>
       </c>
       <c r="B125" s="17" t="s">
-        <v>353</v>
+        <v>357</v>
       </c>
       <c r="C125" s="12"/>
       <c r="D125" s="39"/>
       <c r="E125" s="17"/>
       <c r="F125" s="17"/>
       <c r="G125" s="17" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="H125" s="17" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="I125" s="17"/>
       <c r="J125" s="17"/>
       <c r="K125" s="41" t="s">
-        <v>354</v>
+        <v>358</v>
       </c>
       <c r="L125" s="2"/>
       <c r="M125" s="2"/>
@@ -8520,24 +8576,24 @@
         <v>118</v>
       </c>
       <c r="B126" s="17" t="s">
-        <v>355</v>
+        <v>359</v>
       </c>
       <c r="C126" s="12"/>
       <c r="D126" s="39"/>
       <c r="E126" s="39" t="s">
-        <v>356</v>
+        <v>360</v>
       </c>
       <c r="F126" s="17"/>
       <c r="G126" s="17" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="H126" s="17" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="I126" s="17"/>
       <c r="J126" s="17"/>
       <c r="K126" s="41" t="s">
-        <v>357</v>
+        <v>361</v>
       </c>
       <c r="L126" s="2"/>
       <c r="M126" s="2"/>
@@ -8552,22 +8608,22 @@
         <v>120</v>
       </c>
       <c r="B127" s="17" t="s">
-        <v>358</v>
+        <v>362</v>
       </c>
       <c r="C127" s="12"/>
       <c r="D127" s="39"/>
       <c r="E127" s="39"/>
       <c r="F127" s="17"/>
       <c r="G127" s="17" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="H127" s="17" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="I127" s="17"/>
       <c r="J127" s="17"/>
       <c r="K127" s="41" t="s">
-        <v>359</v>
+        <v>363</v>
       </c>
       <c r="L127" s="2"/>
       <c r="M127" s="2"/>
@@ -8582,22 +8638,22 @@
         <v>121</v>
       </c>
       <c r="B128" s="17" t="s">
-        <v>360</v>
+        <v>364</v>
       </c>
       <c r="C128" s="40"/>
       <c r="D128" s="39"/>
       <c r="E128" s="39"/>
       <c r="F128" s="17"/>
       <c r="G128" s="17" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="H128" s="17" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="I128" s="17"/>
       <c r="J128" s="17"/>
       <c r="K128" s="41" t="s">
-        <v>361</v>
+        <v>365</v>
       </c>
     </row>
     <row r="129" ht="33" spans="1:11">
@@ -8605,22 +8661,22 @@
         <v>122</v>
       </c>
       <c r="B129" s="17" t="s">
-        <v>362</v>
+        <v>366</v>
       </c>
       <c r="C129" s="40"/>
       <c r="D129" s="39"/>
       <c r="E129" s="39"/>
       <c r="F129" s="17"/>
       <c r="G129" s="17" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="H129" s="17" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="I129" s="17"/>
       <c r="J129" s="17"/>
       <c r="K129" s="41" t="s">
-        <v>363</v>
+        <v>367</v>
       </c>
     </row>
     <row r="130" ht="33" spans="1:11">
@@ -8628,22 +8684,22 @@
         <v>123</v>
       </c>
       <c r="B130" s="17" t="s">
-        <v>364</v>
+        <v>368</v>
       </c>
       <c r="C130" s="40"/>
       <c r="D130" s="39"/>
       <c r="E130" s="39"/>
       <c r="F130" s="17"/>
       <c r="G130" s="17" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="H130" s="17" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="I130" s="17"/>
       <c r="J130" s="17"/>
       <c r="K130" s="41" t="s">
-        <v>365</v>
+        <v>369</v>
       </c>
     </row>
     <row r="131" ht="33" spans="1:11">
@@ -8651,22 +8707,22 @@
         <v>124</v>
       </c>
       <c r="B131" s="17" t="s">
-        <v>366</v>
+        <v>370</v>
       </c>
       <c r="C131" s="40"/>
       <c r="D131" s="39"/>
       <c r="E131" s="39"/>
       <c r="F131" s="17"/>
       <c r="G131" s="17" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="H131" s="17" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="I131" s="17"/>
       <c r="J131" s="17"/>
       <c r="K131" s="41" t="s">
-        <v>367</v>
+        <v>371</v>
       </c>
     </row>
     <row r="132" ht="16.5" spans="1:11">
@@ -8674,28 +8730,28 @@
         <v>125</v>
       </c>
       <c r="B132" s="17" t="s">
-        <v>368</v>
+        <v>372</v>
       </c>
       <c r="C132" s="40"/>
       <c r="D132" s="47" t="s">
-        <v>369</v>
+        <v>373</v>
       </c>
       <c r="E132" s="47" t="s">
-        <v>333</v>
+        <v>337</v>
       </c>
       <c r="F132" s="17" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="G132" s="17" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="H132" s="17"/>
       <c r="I132" s="17" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="J132" s="17"/>
       <c r="K132" s="41" t="s">
-        <v>370</v>
+        <v>374</v>
       </c>
     </row>
     <row r="133" ht="16.5" spans="1:11">
@@ -8703,24 +8759,24 @@
         <v>126</v>
       </c>
       <c r="B133" s="17" t="s">
-        <v>371</v>
+        <v>375</v>
       </c>
       <c r="C133" s="40"/>
       <c r="D133" s="48"/>
       <c r="E133" s="48"/>
       <c r="F133" s="17" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="G133" s="17" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="H133" s="17"/>
       <c r="I133" s="17" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="J133" s="17"/>
       <c r="K133" s="41" t="s">
-        <v>372</v>
+        <v>376</v>
       </c>
     </row>
     <row r="134" ht="16.5" spans="1:11">
@@ -8728,24 +8784,24 @@
         <v>127</v>
       </c>
       <c r="B134" s="17" t="s">
-        <v>373</v>
+        <v>377</v>
       </c>
       <c r="C134" s="40"/>
       <c r="D134" s="48"/>
       <c r="E134" s="48"/>
       <c r="F134" s="17" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="G134" s="17" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="H134" s="17"/>
       <c r="I134" s="17" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="J134" s="17"/>
       <c r="K134" s="41" t="s">
-        <v>374</v>
+        <v>378</v>
       </c>
     </row>
     <row r="135" ht="16.5" spans="1:11">
@@ -8753,24 +8809,24 @@
         <v>128</v>
       </c>
       <c r="B135" s="17" t="s">
-        <v>375</v>
+        <v>379</v>
       </c>
       <c r="C135" s="40"/>
       <c r="D135" s="48"/>
       <c r="E135" s="48"/>
       <c r="F135" s="17" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="G135" s="17" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="H135" s="17"/>
       <c r="I135" s="17" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="J135" s="17"/>
       <c r="K135" s="41" t="s">
-        <v>376</v>
+        <v>380</v>
       </c>
     </row>
     <row r="136" ht="16.5" spans="1:11">
@@ -8778,20 +8834,20 @@
         <v>129</v>
       </c>
       <c r="B136" s="17" t="s">
-        <v>377</v>
+        <v>381</v>
       </c>
       <c r="C136" s="40"/>
       <c r="D136" s="48"/>
       <c r="E136" s="49"/>
       <c r="F136" s="17"/>
       <c r="G136" s="17" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="H136" s="17"/>
       <c r="I136" s="17"/>
       <c r="J136" s="17"/>
       <c r="K136" s="41" t="s">
-        <v>330</v>
+        <v>334</v>
       </c>
     </row>
     <row r="137" ht="16.5" spans="1:11">
@@ -8799,26 +8855,26 @@
         <v>130</v>
       </c>
       <c r="B137" s="17" t="s">
-        <v>378</v>
+        <v>382</v>
       </c>
       <c r="C137" s="40"/>
       <c r="D137" s="48"/>
       <c r="E137" s="47" t="s">
-        <v>349</v>
+        <v>353</v>
       </c>
       <c r="F137" s="17" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="G137" s="17" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="H137" s="17"/>
       <c r="I137" s="17" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="J137" s="17"/>
       <c r="K137" s="41" t="s">
-        <v>379</v>
+        <v>383</v>
       </c>
     </row>
     <row r="138" ht="16.5" spans="1:11">
@@ -8826,24 +8882,24 @@
         <v>131</v>
       </c>
       <c r="B138" s="17" t="s">
-        <v>380</v>
+        <v>384</v>
       </c>
       <c r="C138" s="40"/>
       <c r="D138" s="48"/>
       <c r="E138" s="48"/>
       <c r="F138" s="17" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="G138" s="17" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="H138" s="17"/>
       <c r="I138" s="17" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="J138" s="17"/>
       <c r="K138" s="41" t="s">
-        <v>379</v>
+        <v>383</v>
       </c>
     </row>
     <row r="139" ht="16.5" spans="1:11">
@@ -8851,24 +8907,24 @@
         <v>132</v>
       </c>
       <c r="B139" s="17" t="s">
-        <v>381</v>
+        <v>385</v>
       </c>
       <c r="C139" s="40"/>
       <c r="D139" s="48"/>
       <c r="E139" s="48"/>
       <c r="F139" s="17" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="G139" s="17" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="H139" s="17"/>
       <c r="I139" s="17" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="J139" s="17"/>
       <c r="K139" s="41" t="s">
-        <v>382</v>
+        <v>386</v>
       </c>
     </row>
     <row r="140" ht="16.5" spans="1:11">
@@ -8876,20 +8932,20 @@
         <v>133</v>
       </c>
       <c r="B140" s="17" t="s">
-        <v>383</v>
+        <v>387</v>
       </c>
       <c r="C140" s="40"/>
       <c r="D140" s="48"/>
       <c r="E140" s="48"/>
       <c r="F140" s="17"/>
       <c r="G140" s="17" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="H140" s="17"/>
       <c r="I140" s="17"/>
       <c r="J140" s="17"/>
       <c r="K140" s="41" t="s">
-        <v>384</v>
+        <v>388</v>
       </c>
     </row>
     <row r="141" ht="20.1" customHeight="1" spans="1:18">
@@ -8897,20 +8953,20 @@
         <v>134</v>
       </c>
       <c r="B141" s="17" t="s">
-        <v>385</v>
+        <v>389</v>
       </c>
       <c r="C141" s="12"/>
       <c r="D141" s="49"/>
       <c r="E141" s="49"/>
       <c r="F141" s="17"/>
       <c r="G141" s="17" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="H141" s="17"/>
       <c r="I141" s="17"/>
       <c r="J141" s="17"/>
       <c r="K141" s="41" t="s">
-        <v>386</v>
+        <v>390</v>
       </c>
       <c r="L141" s="2"/>
       <c r="M141" s="2"/>
@@ -8925,26 +8981,26 @@
         <v>135</v>
       </c>
       <c r="B142" s="13" t="s">
-        <v>387</v>
+        <v>391</v>
       </c>
       <c r="C142" s="16" t="s">
-        <v>388</v>
+        <v>392</v>
       </c>
       <c r="D142" s="13"/>
       <c r="E142" s="13"/>
       <c r="F142" s="13" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="G142" s="13" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="H142" s="13"/>
       <c r="I142" s="13" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="J142" s="13"/>
       <c r="K142" s="35" t="s">
-        <v>389</v>
+        <v>393</v>
       </c>
       <c r="L142" s="2"/>
       <c r="M142" s="2"/>
@@ -8959,26 +9015,26 @@
         <v>136</v>
       </c>
       <c r="B143" s="13" t="s">
-        <v>390</v>
+        <v>394</v>
       </c>
       <c r="C143" s="11"/>
       <c r="D143" s="13"/>
       <c r="E143" s="13"/>
       <c r="F143" s="13" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="G143" s="13" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="H143" s="13" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="I143" s="13" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="J143" s="13"/>
       <c r="K143" s="41" t="s">
-        <v>391</v>
+        <v>395</v>
       </c>
       <c r="L143" s="2"/>
       <c r="M143" s="2"/>
@@ -8993,26 +9049,26 @@
         <v>137</v>
       </c>
       <c r="B144" s="13" t="s">
-        <v>392</v>
+        <v>396</v>
       </c>
       <c r="C144" s="11"/>
       <c r="D144" s="13"/>
       <c r="E144" s="13"/>
       <c r="F144" s="13" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="G144" s="13" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="H144" s="13" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="I144" s="13" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="J144" s="13"/>
       <c r="K144" s="41" t="s">
-        <v>393</v>
+        <v>397</v>
       </c>
       <c r="L144" s="2"/>
       <c r="M144" s="2"/>
@@ -9027,26 +9083,26 @@
         <v>138</v>
       </c>
       <c r="B145" s="13" t="s">
-        <v>394</v>
+        <v>398</v>
       </c>
       <c r="C145" s="11"/>
       <c r="D145" s="13"/>
       <c r="E145" s="13"/>
       <c r="F145" s="13" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="G145" s="13" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="H145" s="13" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="I145" s="13" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="J145" s="13"/>
       <c r="K145" s="35" t="s">
-        <v>395</v>
+        <v>399</v>
       </c>
       <c r="L145" s="2"/>
       <c r="M145" s="2"/>
@@ -9061,26 +9117,26 @@
         <v>139</v>
       </c>
       <c r="B146" s="13" t="s">
-        <v>396</v>
+        <v>400</v>
       </c>
       <c r="C146" s="11"/>
       <c r="D146" s="13"/>
       <c r="E146" s="13"/>
       <c r="F146" s="13" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="G146" s="13" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="H146" s="13" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="I146" s="13" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="J146" s="13"/>
       <c r="K146" s="35" t="s">
-        <v>397</v>
+        <v>401</v>
       </c>
       <c r="L146" s="2"/>
       <c r="M146" s="2"/>
@@ -9095,26 +9151,26 @@
         <v>140</v>
       </c>
       <c r="B147" s="13" t="s">
-        <v>398</v>
+        <v>402</v>
       </c>
       <c r="C147" s="11"/>
       <c r="D147" s="13"/>
       <c r="E147" s="13"/>
       <c r="F147" s="13" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="G147" s="13" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="H147" s="13" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="I147" s="13" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="J147" s="13"/>
       <c r="K147" s="35" t="s">
-        <v>399</v>
+        <v>403</v>
       </c>
       <c r="L147" s="2"/>
       <c r="M147" s="2"/>
@@ -9129,26 +9185,26 @@
         <v>141</v>
       </c>
       <c r="B148" s="13" t="s">
-        <v>400</v>
+        <v>404</v>
       </c>
       <c r="C148" s="11"/>
       <c r="D148" s="13"/>
       <c r="E148" s="13"/>
       <c r="F148" s="13" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="G148" s="13" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="H148" s="13" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="I148" s="13" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="J148" s="13"/>
       <c r="K148" s="41" t="s">
-        <v>401</v>
+        <v>405</v>
       </c>
       <c r="L148" s="2"/>
       <c r="M148" s="2"/>
@@ -9163,26 +9219,26 @@
         <v>142</v>
       </c>
       <c r="B149" s="13" t="s">
-        <v>402</v>
+        <v>406</v>
       </c>
       <c r="C149" s="11"/>
       <c r="D149" s="13"/>
       <c r="E149" s="13"/>
       <c r="F149" s="13" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="G149" s="13" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="H149" s="13" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="I149" s="13" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="J149" s="13"/>
       <c r="K149" s="41" t="s">
-        <v>403</v>
+        <v>407</v>
       </c>
       <c r="L149" s="2"/>
       <c r="M149" s="2"/>
@@ -9197,26 +9253,26 @@
         <v>143</v>
       </c>
       <c r="B150" s="13" t="s">
-        <v>404</v>
+        <v>408</v>
       </c>
       <c r="C150" s="15"/>
       <c r="D150" s="13"/>
       <c r="E150" s="13"/>
       <c r="F150" s="13"/>
       <c r="G150" s="13" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="H150" s="13" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="I150" s="13" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="J150" s="13" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="K150" s="35" t="s">
-        <v>405</v>
+        <v>409</v>
       </c>
       <c r="L150" s="2"/>
       <c r="M150" s="2"/>
@@ -9231,26 +9287,26 @@
         <v>144</v>
       </c>
       <c r="B151" s="13" t="s">
-        <v>406</v>
+        <v>410</v>
       </c>
       <c r="C151" s="13" t="s">
-        <v>407</v>
+        <v>411</v>
       </c>
       <c r="D151" s="13"/>
       <c r="E151" s="13"/>
       <c r="F151" s="50" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="G151" s="50" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="H151" s="50"/>
       <c r="I151" s="50" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="J151" s="50"/>
       <c r="K151" s="51" t="s">
-        <v>408</v>
+        <v>412</v>
       </c>
       <c r="L151" s="2"/>
       <c r="M151" s="2"/>
@@ -9265,26 +9321,26 @@
         <v>145</v>
       </c>
       <c r="B152" s="13" t="s">
-        <v>409</v>
+        <v>413</v>
       </c>
       <c r="C152" s="13"/>
       <c r="D152" s="13"/>
       <c r="E152" s="13"/>
       <c r="F152" s="50" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="G152" s="50" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="H152" s="50" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="I152" s="50" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="J152" s="50"/>
       <c r="K152" s="51" t="s">
-        <v>410</v>
+        <v>414</v>
       </c>
       <c r="L152" s="2"/>
       <c r="M152" s="2"/>
@@ -9299,26 +9355,26 @@
         <v>146</v>
       </c>
       <c r="B153" s="13" t="s">
-        <v>411</v>
+        <v>415</v>
       </c>
       <c r="C153" s="13"/>
       <c r="D153" s="13"/>
       <c r="E153" s="13"/>
       <c r="F153" s="50" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="G153" s="50" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="H153" s="50" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="I153" s="50" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="J153" s="50"/>
       <c r="K153" s="52" t="s">
-        <v>412</v>
+        <v>416</v>
       </c>
       <c r="L153" s="2"/>
       <c r="M153" s="2"/>
@@ -9333,26 +9389,26 @@
         <v>147</v>
       </c>
       <c r="B154" s="13" t="s">
-        <v>413</v>
+        <v>417</v>
       </c>
       <c r="C154" s="13"/>
       <c r="D154" s="13"/>
       <c r="E154" s="13"/>
       <c r="F154" s="50" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="G154" s="50" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="H154" s="50" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="I154" s="50" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="J154" s="50"/>
       <c r="K154" s="51" t="s">
-        <v>414</v>
+        <v>418</v>
       </c>
       <c r="L154" s="2"/>
       <c r="M154" s="2"/>
@@ -9367,26 +9423,26 @@
         <v>148</v>
       </c>
       <c r="B155" s="13" t="s">
-        <v>415</v>
+        <v>419</v>
       </c>
       <c r="C155" s="13"/>
       <c r="D155" s="13"/>
       <c r="E155" s="13"/>
       <c r="F155" s="50" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="G155" s="50" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="H155" s="50" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="I155" s="50" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="J155" s="50"/>
       <c r="K155" s="51" t="s">
-        <v>416</v>
+        <v>420</v>
       </c>
       <c r="L155" s="2"/>
       <c r="M155" s="2"/>
@@ -9401,26 +9457,26 @@
         <v>149</v>
       </c>
       <c r="B156" s="13" t="s">
-        <v>417</v>
+        <v>421</v>
       </c>
       <c r="C156" s="13"/>
       <c r="D156" s="13"/>
       <c r="E156" s="13"/>
       <c r="F156" s="50" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="G156" s="50" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="H156" s="50" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="I156" s="50" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="J156" s="50"/>
       <c r="K156" s="51" t="s">
-        <v>418</v>
+        <v>422</v>
       </c>
       <c r="L156" s="2"/>
       <c r="M156" s="2"/>
@@ -9435,26 +9491,26 @@
         <v>150</v>
       </c>
       <c r="B157" s="13" t="s">
-        <v>419</v>
+        <v>423</v>
       </c>
       <c r="C157" s="27"/>
       <c r="D157" s="27"/>
       <c r="E157" s="27"/>
       <c r="F157" s="50" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="G157" s="50" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="H157" s="50" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="I157" s="50" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="J157" s="50"/>
       <c r="K157" s="52" t="s">
-        <v>420</v>
+        <v>424</v>
       </c>
     </row>
     <row r="158" ht="33" spans="1:11">
@@ -9462,26 +9518,26 @@
         <v>151</v>
       </c>
       <c r="B158" s="13" t="s">
-        <v>421</v>
+        <v>425</v>
       </c>
       <c r="C158" s="27"/>
       <c r="D158" s="27"/>
       <c r="E158" s="27"/>
       <c r="F158" s="50" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="G158" s="50" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="H158" s="50" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="I158" s="50" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="J158" s="50"/>
       <c r="K158" s="52" t="s">
-        <v>422</v>
+        <v>426</v>
       </c>
     </row>
     <row r="159" ht="16.5" spans="1:18">
@@ -9489,24 +9545,24 @@
         <v>152</v>
       </c>
       <c r="B159" s="13" t="s">
-        <v>423</v>
+        <v>427</v>
       </c>
       <c r="C159" s="13"/>
       <c r="D159" s="13"/>
       <c r="E159" s="13"/>
       <c r="F159" s="50"/>
       <c r="G159" s="50" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="H159" s="50" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="I159" s="50" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="J159" s="50"/>
       <c r="K159" s="51" t="s">
-        <v>424</v>
+        <v>428</v>
       </c>
       <c r="L159" s="2"/>
       <c r="M159" s="2"/>
@@ -9521,26 +9577,26 @@
         <v>153</v>
       </c>
       <c r="B160" s="13" t="s">
-        <v>425</v>
+        <v>429</v>
       </c>
       <c r="C160" s="16" t="s">
-        <v>426</v>
+        <v>430</v>
       </c>
       <c r="D160" s="13"/>
       <c r="E160" s="13"/>
       <c r="F160" s="13" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="G160" s="13" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="H160" s="13"/>
       <c r="I160" s="13" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="J160" s="13"/>
       <c r="K160" s="35" t="s">
-        <v>427</v>
+        <v>431</v>
       </c>
       <c r="L160" s="2"/>
       <c r="M160" s="2"/>
@@ -9555,26 +9611,26 @@
         <v>154</v>
       </c>
       <c r="B161" s="13" t="s">
-        <v>428</v>
+        <v>432</v>
       </c>
       <c r="C161" s="11"/>
       <c r="D161" s="13"/>
       <c r="E161" s="13"/>
       <c r="F161" s="13" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="G161" s="13" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="H161" s="13" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="I161" s="13" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="J161" s="13"/>
       <c r="K161" s="35" t="s">
-        <v>429</v>
+        <v>433</v>
       </c>
       <c r="L161" s="2"/>
       <c r="M161" s="2"/>
@@ -9589,26 +9645,26 @@
         <v>155</v>
       </c>
       <c r="B162" s="13" t="s">
-        <v>430</v>
+        <v>434</v>
       </c>
       <c r="C162" s="11"/>
       <c r="D162" s="13"/>
       <c r="E162" s="13"/>
       <c r="F162" s="13" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="G162" s="13" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="H162" s="13" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="I162" s="13" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="J162" s="13"/>
       <c r="K162" s="41" t="s">
-        <v>431</v>
+        <v>435</v>
       </c>
       <c r="L162" s="2"/>
       <c r="M162" s="2"/>
@@ -9623,26 +9679,26 @@
         <v>156</v>
       </c>
       <c r="B163" s="13" t="s">
-        <v>432</v>
+        <v>436</v>
       </c>
       <c r="C163" s="11"/>
       <c r="D163" s="13"/>
       <c r="E163" s="13"/>
       <c r="F163" s="13" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="G163" s="13" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="H163" s="13" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="I163" s="13" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="J163" s="13"/>
       <c r="K163" s="51" t="s">
-        <v>414</v>
+        <v>418</v>
       </c>
       <c r="L163" s="2"/>
       <c r="M163" s="2"/>
@@ -9657,26 +9713,26 @@
         <v>157</v>
       </c>
       <c r="B164" s="13" t="s">
-        <v>433</v>
+        <v>437</v>
       </c>
       <c r="C164" s="11"/>
       <c r="D164" s="13"/>
       <c r="E164" s="13"/>
       <c r="F164" s="13" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="G164" s="13" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="H164" s="13" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="I164" s="13" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="J164" s="13"/>
       <c r="K164" s="51" t="s">
-        <v>416</v>
+        <v>420</v>
       </c>
       <c r="L164" s="2"/>
       <c r="M164" s="2"/>
@@ -9691,26 +9747,26 @@
         <v>158</v>
       </c>
       <c r="B165" s="13" t="s">
-        <v>434</v>
+        <v>438</v>
       </c>
       <c r="C165" s="11"/>
       <c r="D165" s="13"/>
       <c r="E165" s="13"/>
       <c r="F165" s="13" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="G165" s="13" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="H165" s="13" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="I165" s="13" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="J165" s="13"/>
       <c r="K165" s="51" t="s">
-        <v>418</v>
+        <v>422</v>
       </c>
       <c r="L165" s="2"/>
       <c r="M165" s="2"/>
@@ -9725,26 +9781,26 @@
         <v>159</v>
       </c>
       <c r="B166" s="13" t="s">
-        <v>435</v>
+        <v>439</v>
       </c>
       <c r="C166" s="11"/>
       <c r="D166" s="13"/>
       <c r="E166" s="13"/>
       <c r="F166" s="13" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="G166" s="13" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="H166" s="13" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="I166" s="13" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="J166" s="13"/>
       <c r="K166" s="52" t="s">
-        <v>420</v>
+        <v>424</v>
       </c>
       <c r="L166" s="2"/>
       <c r="M166" s="2"/>
@@ -9759,26 +9815,26 @@
         <v>160</v>
       </c>
       <c r="B167" s="13" t="s">
-        <v>436</v>
+        <v>440</v>
       </c>
       <c r="C167" s="11"/>
       <c r="D167" s="13"/>
       <c r="E167" s="13"/>
       <c r="F167" s="13" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="G167" s="13" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="H167" s="13" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="I167" s="13" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="J167" s="13"/>
       <c r="K167" s="52" t="s">
-        <v>422</v>
+        <v>426</v>
       </c>
       <c r="L167" s="2"/>
       <c r="M167" s="2"/>
@@ -9793,26 +9849,26 @@
         <v>161</v>
       </c>
       <c r="B168" s="13" t="s">
-        <v>437</v>
+        <v>441</v>
       </c>
       <c r="C168" s="15"/>
       <c r="D168" s="13"/>
       <c r="E168" s="13"/>
       <c r="F168" s="13" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="G168" s="13" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="H168" s="13" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="I168" s="13" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="J168" s="13"/>
       <c r="K168" s="51" t="s">
-        <v>424</v>
+        <v>428</v>
       </c>
       <c r="L168" s="2"/>
       <c r="M168" s="2"/>
@@ -9827,28 +9883,28 @@
         <v>162</v>
       </c>
       <c r="B169" s="13" t="s">
-        <v>438</v>
+        <v>442</v>
       </c>
       <c r="C169" s="16" t="s">
-        <v>439</v>
+        <v>443</v>
       </c>
       <c r="D169" s="13"/>
       <c r="E169" s="13"/>
       <c r="F169" s="13" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="G169" s="13" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="H169" s="13" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="I169" s="13" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="J169" s="13"/>
       <c r="K169" s="33" t="s">
-        <v>440</v>
+        <v>444</v>
       </c>
       <c r="L169" s="2"/>
       <c r="M169" s="2"/>
@@ -9863,26 +9919,26 @@
         <v>163</v>
       </c>
       <c r="B170" s="13" t="s">
-        <v>441</v>
+        <v>445</v>
       </c>
       <c r="C170" s="11"/>
       <c r="D170" s="13"/>
       <c r="E170" s="13"/>
       <c r="F170" s="13" t="s">
-        <v>442</v>
+        <v>446</v>
       </c>
       <c r="G170" s="13" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="H170" s="13" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="I170" s="13" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="J170" s="13"/>
       <c r="K170" s="33" t="s">
-        <v>443</v>
+        <v>447</v>
       </c>
       <c r="L170" s="2"/>
       <c r="M170" s="2"/>
@@ -9897,26 +9953,26 @@
         <v>164</v>
       </c>
       <c r="B171" s="13" t="s">
-        <v>444</v>
+        <v>448</v>
       </c>
       <c r="C171" s="11"/>
       <c r="D171" s="13"/>
       <c r="E171" s="13"/>
       <c r="F171" s="13" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="G171" s="13" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="H171" s="13" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="I171" s="13" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="J171" s="13"/>
       <c r="K171" s="33" t="s">
-        <v>445</v>
+        <v>449</v>
       </c>
       <c r="L171" s="2"/>
       <c r="M171" s="2"/>
@@ -9931,26 +9987,26 @@
         <v>165</v>
       </c>
       <c r="B172" s="13" t="s">
-        <v>446</v>
+        <v>450</v>
       </c>
       <c r="C172" s="11"/>
       <c r="D172" s="13"/>
       <c r="E172" s="13"/>
       <c r="F172" s="13" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="G172" s="13" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="H172" s="13" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="I172" s="13" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="J172" s="13"/>
       <c r="K172" s="33" t="s">
-        <v>447</v>
+        <v>451</v>
       </c>
       <c r="L172" s="2"/>
       <c r="M172" s="2"/>
@@ -9965,26 +10021,26 @@
         <v>166</v>
       </c>
       <c r="B173" s="13" t="s">
-        <v>448</v>
+        <v>452</v>
       </c>
       <c r="C173" s="15"/>
       <c r="D173" s="13"/>
       <c r="E173" s="13"/>
       <c r="F173" s="13" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="G173" s="13" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="H173" s="13" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="I173" s="13" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="J173" s="13"/>
       <c r="K173" s="33" t="s">
-        <v>449</v>
+        <v>453</v>
       </c>
       <c r="L173" s="2"/>
       <c r="M173" s="2"/>
@@ -9999,28 +10055,28 @@
         <v>167</v>
       </c>
       <c r="B174" s="13" t="s">
-        <v>450</v>
+        <v>454</v>
       </c>
       <c r="C174" s="16" t="s">
-        <v>451</v>
+        <v>455</v>
       </c>
       <c r="D174" s="16" t="s">
-        <v>452</v>
+        <v>456</v>
       </c>
       <c r="E174" s="13"/>
       <c r="F174" s="13" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="G174" s="13" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="H174" s="13"/>
       <c r="I174" s="13" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="J174" s="13"/>
       <c r="K174" s="36" t="s">
-        <v>453</v>
+        <v>457</v>
       </c>
       <c r="L174" s="2"/>
       <c r="M174" s="2"/>
@@ -10035,20 +10091,20 @@
         <v>168</v>
       </c>
       <c r="B175" s="13" t="s">
-        <v>454</v>
+        <v>458</v>
       </c>
       <c r="C175" s="11"/>
       <c r="D175" s="15"/>
       <c r="E175" s="13"/>
       <c r="F175" s="13"/>
       <c r="G175" s="13" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="H175" s="13"/>
       <c r="I175" s="13"/>
       <c r="J175" s="13"/>
       <c r="K175" s="33" t="s">
-        <v>455</v>
+        <v>459</v>
       </c>
       <c r="L175" s="2"/>
       <c r="M175" s="2"/>
@@ -10063,26 +10119,26 @@
         <v>169</v>
       </c>
       <c r="B176" s="13" t="s">
-        <v>456</v>
+        <v>460</v>
       </c>
       <c r="C176" s="11"/>
       <c r="D176" s="16" t="s">
-        <v>457</v>
+        <v>461</v>
       </c>
       <c r="E176" s="13"/>
       <c r="F176" s="13" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="G176" s="13" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="H176" s="13"/>
       <c r="I176" s="13" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="J176" s="13"/>
       <c r="K176" s="36" t="s">
-        <v>458</v>
+        <v>462</v>
       </c>
       <c r="L176" s="2"/>
       <c r="M176" s="2"/>
@@ -10097,22 +10153,22 @@
         <v>170</v>
       </c>
       <c r="B177" s="13" t="s">
-        <v>459</v>
+        <v>463</v>
       </c>
       <c r="C177" s="11"/>
       <c r="D177" s="11"/>
       <c r="E177" s="13"/>
       <c r="F177" s="13" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="G177" s="13" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="H177" s="13"/>
       <c r="I177" s="13"/>
       <c r="J177" s="13"/>
       <c r="K177" s="36" t="s">
-        <v>453</v>
+        <v>457</v>
       </c>
       <c r="L177" s="2"/>
       <c r="M177" s="2"/>
@@ -10127,20 +10183,20 @@
         <v>171</v>
       </c>
       <c r="B178" s="13" t="s">
-        <v>460</v>
+        <v>464</v>
       </c>
       <c r="C178" s="11"/>
       <c r="D178" s="15"/>
       <c r="E178" s="13"/>
       <c r="F178" s="13"/>
       <c r="G178" s="13" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="H178" s="13"/>
       <c r="I178" s="13"/>
       <c r="J178" s="13"/>
       <c r="K178" s="33" t="s">
-        <v>455</v>
+        <v>459</v>
       </c>
       <c r="L178" s="2"/>
       <c r="M178" s="2"/>
@@ -10155,26 +10211,26 @@
         <v>172</v>
       </c>
       <c r="B179" s="13" t="s">
-        <v>461</v>
+        <v>465</v>
       </c>
       <c r="C179" s="11"/>
       <c r="D179" s="16" t="s">
-        <v>462</v>
+        <v>466</v>
       </c>
       <c r="E179" s="13"/>
       <c r="F179" s="13" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="G179" s="13" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="H179" s="13"/>
       <c r="I179" s="13" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="J179" s="13"/>
       <c r="K179" s="36" t="s">
-        <v>463</v>
+        <v>467</v>
       </c>
       <c r="L179" s="2"/>
       <c r="M179" s="2"/>
@@ -10189,22 +10245,22 @@
         <v>173</v>
       </c>
       <c r="B180" s="13" t="s">
-        <v>464</v>
+        <v>468</v>
       </c>
       <c r="C180" s="11"/>
       <c r="D180" s="11"/>
       <c r="E180" s="13"/>
       <c r="F180" s="13" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="G180" s="13" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="H180" s="13"/>
       <c r="I180" s="13"/>
       <c r="J180" s="13"/>
       <c r="K180" s="36" t="s">
-        <v>465</v>
+        <v>469</v>
       </c>
       <c r="L180" s="2"/>
       <c r="M180" s="2"/>
@@ -10219,20 +10275,20 @@
         <v>174</v>
       </c>
       <c r="B181" s="13" t="s">
-        <v>466</v>
+        <v>470</v>
       </c>
       <c r="C181" s="11"/>
       <c r="D181" s="15"/>
       <c r="E181" s="13"/>
       <c r="F181" s="13"/>
       <c r="G181" s="13" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="H181" s="13"/>
       <c r="I181" s="13"/>
       <c r="J181" s="13"/>
       <c r="K181" s="33" t="s">
-        <v>455</v>
+        <v>459</v>
       </c>
       <c r="L181" s="2"/>
       <c r="M181" s="2"/>
@@ -10247,26 +10303,26 @@
         <v>175</v>
       </c>
       <c r="B182" s="13" t="s">
-        <v>467</v>
+        <v>471</v>
       </c>
       <c r="C182" s="15"/>
       <c r="D182" s="13" t="s">
-        <v>468</v>
+        <v>472</v>
       </c>
       <c r="E182" s="13"/>
       <c r="F182" s="13" t="s">
-        <v>442</v>
+        <v>446</v>
       </c>
       <c r="G182" s="13"/>
       <c r="H182" s="13" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="I182" s="13" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="J182" s="13"/>
       <c r="K182" s="36" t="s">
-        <v>469</v>
+        <v>473</v>
       </c>
       <c r="L182" s="2"/>
       <c r="M182" s="2"/>
